--- a/Sales_Forecasting.xlsx
+++ b/Sales_Forecasting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zfreitas\Dropbox\Classes\USD\ADS-506-02-FA22 - Applied Time Series Analysis\Git\Final_Project_ADS_506\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27FEB96-6C31-4A1F-94A3-3E8FF43F5C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A09067-9BB0-4670-A641-80CEF972AEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="53">
   <si>
     <t>svc_agreement_activation_date</t>
   </si>
@@ -192,12 +192,6 @@
   </si>
   <si>
     <t>lag30</t>
-  </si>
-  <si>
-    <t>SMA7</t>
-  </si>
-  <si>
-    <t>SMA30</t>
   </si>
 </sst>
 </file>
@@ -1045,21 +1039,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6AEA1-1907-3544-A267-A9778C757555}">
-  <dimension ref="A1:AV424"/>
+  <dimension ref="A1:AT428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="47" width="11" customWidth="1"/>
+    <col min="3" max="46" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1198,14 +1192,8 @@
       <c r="AT1" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44439</v>
       </c>
@@ -1344,14 +1332,8 @@
       <c r="AT2">
         <v>0</v>
       </c>
-      <c r="AU2">
-        <v>490.28571428571399</v>
-      </c>
-      <c r="AV2">
-        <v>409.73333333333301</v>
-      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44440</v>
       </c>
@@ -1490,14 +1472,8 @@
       <c r="AT3">
         <v>0</v>
       </c>
-      <c r="AU3">
-        <v>470.85714285714198</v>
-      </c>
-      <c r="AV3">
-        <v>424.666666666666</v>
-      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44441</v>
       </c>
@@ -1636,14 +1612,8 @@
       <c r="AT4">
         <v>0</v>
       </c>
-      <c r="AU4">
-        <v>479.85714285714198</v>
-      </c>
-      <c r="AV4">
-        <v>445.166666666666</v>
-      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44442</v>
       </c>
@@ -1782,14 +1752,8 @@
       <c r="AT5">
         <v>0</v>
       </c>
-      <c r="AU5">
-        <v>488.142857142857</v>
-      </c>
-      <c r="AV5">
-        <v>460.86666666666599</v>
-      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44443</v>
       </c>
@@ -1928,14 +1892,8 @@
       <c r="AT6">
         <v>0</v>
       </c>
-      <c r="AU6">
-        <v>493.42857142857099</v>
-      </c>
-      <c r="AV6">
-        <v>471.433333333333</v>
-      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44444</v>
       </c>
@@ -2074,14 +2032,8 @@
       <c r="AT7">
         <v>0</v>
       </c>
-      <c r="AU7">
-        <v>495.71428571428498</v>
-      </c>
-      <c r="AV7">
-        <v>473.83333333333297</v>
-      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44445</v>
       </c>
@@ -2220,14 +2172,8 @@
       <c r="AT8">
         <v>0</v>
       </c>
-      <c r="AU8">
-        <v>497.142857142857</v>
-      </c>
-      <c r="AV8">
-        <v>461</v>
-      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44446</v>
       </c>
@@ -2366,14 +2312,8 @@
       <c r="AT9">
         <v>0</v>
       </c>
-      <c r="AU9">
-        <v>455.71428571428498</v>
-      </c>
-      <c r="AV9">
-        <v>457.666666666666</v>
-      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44447</v>
       </c>
@@ -2512,14 +2452,8 @@
       <c r="AT10">
         <v>0</v>
       </c>
-      <c r="AU10">
-        <v>479.71428571428498</v>
-      </c>
-      <c r="AV10">
-        <v>476.96666666666601</v>
-      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44448</v>
       </c>
@@ -2658,14 +2592,8 @@
       <c r="AT11">
         <v>0</v>
       </c>
-      <c r="AU11">
-        <v>478.71428571428498</v>
-      </c>
-      <c r="AV11">
-        <v>482.933333333333</v>
-      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44449</v>
       </c>
@@ -2804,14 +2732,8 @@
       <c r="AT12">
         <v>0</v>
       </c>
-      <c r="AU12">
-        <v>474.57142857142799</v>
-      </c>
-      <c r="AV12">
-        <v>487.9</v>
-      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44450</v>
       </c>
@@ -2950,14 +2872,8 @@
       <c r="AT13">
         <v>0</v>
       </c>
-      <c r="AU13">
-        <v>472.71428571428498</v>
-      </c>
-      <c r="AV13">
-        <v>491.76666666666603</v>
-      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44451</v>
       </c>
@@ -3096,14 +3012,8 @@
       <c r="AT14">
         <v>0</v>
       </c>
-      <c r="AU14">
-        <v>473.85714285714198</v>
-      </c>
-      <c r="AV14">
-        <v>489.6</v>
-      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44452</v>
       </c>
@@ -3242,14 +3152,8 @@
       <c r="AT15">
         <v>0</v>
       </c>
-      <c r="AU15">
-        <v>472.142857142857</v>
-      </c>
-      <c r="AV15">
-        <v>472.76666666666603</v>
-      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44453</v>
       </c>
@@ -3388,14 +3292,8 @@
       <c r="AT16">
         <v>0</v>
       </c>
-      <c r="AU16">
-        <v>526.71428571428498</v>
-      </c>
-      <c r="AV16">
-        <v>477.76666666666603</v>
-      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44454</v>
       </c>
@@ -3534,14 +3432,8 @@
       <c r="AT17">
         <v>0</v>
       </c>
-      <c r="AU17">
-        <v>521.71428571428498</v>
-      </c>
-      <c r="AV17">
-        <v>495.26666666666603</v>
-      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44455</v>
       </c>
@@ -3680,14 +3572,8 @@
       <c r="AT18">
         <v>0</v>
       </c>
-      <c r="AU18">
-        <v>512.28571428571399</v>
-      </c>
-      <c r="AV18">
-        <v>495.7</v>
-      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44456</v>
       </c>
@@ -3826,14 +3712,8 @@
       <c r="AT19">
         <v>0</v>
       </c>
-      <c r="AU19">
-        <v>508.57142857142799</v>
-      </c>
-      <c r="AV19">
-        <v>497.2</v>
-      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44457</v>
       </c>
@@ -3972,14 +3852,8 @@
       <c r="AT20">
         <v>0</v>
       </c>
-      <c r="AU20">
-        <v>504.85714285714198</v>
-      </c>
-      <c r="AV20">
-        <v>498.83333333333297</v>
-      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44458</v>
       </c>
@@ -4118,14 +3992,8 @@
       <c r="AT21">
         <v>0</v>
       </c>
-      <c r="AU21">
-        <v>499.28571428571399</v>
-      </c>
-      <c r="AV21">
-        <v>492.96666666666601</v>
-      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44459</v>
       </c>
@@ -4264,14 +4132,8 @@
       <c r="AT22">
         <v>1</v>
       </c>
-      <c r="AU22">
-        <v>499.57142857142799</v>
-      </c>
-      <c r="AV22">
-        <v>474.7</v>
-      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44460</v>
       </c>
@@ -4410,14 +4272,8 @@
       <c r="AT23">
         <v>0</v>
       </c>
-      <c r="AU23">
-        <v>499.85714285714198</v>
-      </c>
-      <c r="AV23">
-        <v>480.26666666666603</v>
-      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44461</v>
       </c>
@@ -4556,14 +4412,8 @@
       <c r="AT24">
         <v>0</v>
       </c>
-      <c r="AU24">
-        <v>500.85714285714198</v>
-      </c>
-      <c r="AV24">
-        <v>497.96666666666601</v>
-      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44462</v>
       </c>
@@ -4702,14 +4552,8 @@
       <c r="AT25">
         <v>0</v>
       </c>
-      <c r="AU25">
-        <v>502.142857142857</v>
-      </c>
-      <c r="AV25">
-        <v>499.7</v>
-      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44463</v>
       </c>
@@ -4848,14 +4692,8 @@
       <c r="AT26">
         <v>0</v>
       </c>
-      <c r="AU26">
-        <v>498.142857142857</v>
-      </c>
-      <c r="AV26">
-        <v>500.13333333333298</v>
-      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44464</v>
       </c>
@@ -4994,14 +4832,8 @@
       <c r="AT27">
         <v>0</v>
       </c>
-      <c r="AU27">
-        <v>495.57142857142799</v>
-      </c>
-      <c r="AV27">
-        <v>500.96666666666601</v>
-      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44465</v>
       </c>
@@ -5140,14 +4972,8 @@
       <c r="AT28">
         <v>0</v>
       </c>
-      <c r="AU28">
-        <v>492.142857142857</v>
-      </c>
-      <c r="AV28">
-        <v>493.666666666666</v>
-      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44466</v>
       </c>
@@ -5286,14 +5112,8 @@
       <c r="AT29">
         <v>0</v>
       </c>
-      <c r="AU29">
-        <v>494.42857142857099</v>
-      </c>
-      <c r="AV29">
-        <v>474.8</v>
-      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44467</v>
       </c>
@@ -5432,14 +5252,8 @@
       <c r="AT30">
         <v>0</v>
       </c>
-      <c r="AU30">
-        <v>499</v>
-      </c>
-      <c r="AV30">
-        <v>480.4</v>
-      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44468</v>
       </c>
@@ -5578,14 +5392,8 @@
       <c r="AT31">
         <v>0</v>
       </c>
-      <c r="AU31">
-        <v>500.42857142857099</v>
-      </c>
-      <c r="AV31">
-        <v>498.63333333333298</v>
-      </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44469</v>
       </c>
@@ -5724,14 +5532,8 @@
       <c r="AT32">
         <v>0</v>
       </c>
-      <c r="AU32">
-        <v>503.28571428571399</v>
-      </c>
-      <c r="AV32">
-        <v>502.73333333333301</v>
-      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44470</v>
       </c>
@@ -5870,14 +5672,8 @@
       <c r="AT33">
         <v>0</v>
       </c>
-      <c r="AU33">
-        <v>505.28571428571399</v>
-      </c>
-      <c r="AV33">
-        <v>508.166666666666</v>
-      </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44471</v>
       </c>
@@ -6016,14 +5812,8 @@
       <c r="AT34">
         <v>0</v>
       </c>
-      <c r="AU34">
-        <v>508.142857142857</v>
-      </c>
-      <c r="AV34">
-        <v>507.56666666666598</v>
-      </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44472</v>
       </c>
@@ -6162,14 +5952,8 @@
       <c r="AT35">
         <v>0</v>
       </c>
-      <c r="AU35">
-        <v>509.85714285714198</v>
-      </c>
-      <c r="AV35">
-        <v>498.73333333333301</v>
-      </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44473</v>
       </c>
@@ -6308,14 +6092,8 @@
       <c r="AT36">
         <v>0</v>
       </c>
-      <c r="AU36">
-        <v>510.71428571428498</v>
-      </c>
-      <c r="AV36">
-        <v>478.83333333333297</v>
-      </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44474</v>
       </c>
@@ -6454,14 +6232,8 @@
       <c r="AT37">
         <v>0</v>
       </c>
-      <c r="AU37">
-        <v>506.57142857142799</v>
-      </c>
-      <c r="AV37">
-        <v>482.933333333333</v>
-      </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44475</v>
       </c>
@@ -6600,14 +6372,8 @@
       <c r="AT38">
         <v>0</v>
       </c>
-      <c r="AU38">
-        <v>507.42857142857099</v>
-      </c>
-      <c r="AV38">
-        <v>501.03333333333302</v>
-      </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44476</v>
       </c>
@@ -6746,14 +6512,8 @@
       <c r="AT39">
         <v>0</v>
       </c>
-      <c r="AU39">
-        <v>506.142857142857</v>
-      </c>
-      <c r="AV39">
-        <v>514.5</v>
-      </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44477</v>
       </c>
@@ -6892,14 +6652,8 @@
       <c r="AT40">
         <v>0</v>
       </c>
-      <c r="AU40">
-        <v>504.28571428571399</v>
-      </c>
-      <c r="AV40">
-        <v>513.9</v>
-      </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44478</v>
       </c>
@@ -7038,14 +6792,8 @@
       <c r="AT41">
         <v>0</v>
       </c>
-      <c r="AU41">
-        <v>500.71428571428498</v>
-      </c>
-      <c r="AV41">
-        <v>512.70000000000005</v>
-      </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44479</v>
       </c>
@@ -7184,14 +6932,8 @@
       <c r="AT42">
         <v>0</v>
       </c>
-      <c r="AU42">
-        <v>502</v>
-      </c>
-      <c r="AV42">
-        <v>505.13333333333298</v>
-      </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44480</v>
       </c>
@@ -7330,14 +7072,8 @@
       <c r="AT43">
         <v>0</v>
       </c>
-      <c r="AU43">
-        <v>499</v>
-      </c>
-      <c r="AV43">
-        <v>484.96666666666601</v>
-      </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44481</v>
       </c>
@@ -7476,14 +7212,8 @@
       <c r="AT44">
         <v>0</v>
       </c>
-      <c r="AU44">
-        <v>495.85714285714198</v>
-      </c>
-      <c r="AV44">
-        <v>488.06666666666598</v>
-      </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44482</v>
       </c>
@@ -7622,14 +7352,8 @@
       <c r="AT45">
         <v>0</v>
       </c>
-      <c r="AU45">
-        <v>494.142857142857</v>
-      </c>
-      <c r="AV45">
-        <v>506.166666666666</v>
-      </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44483</v>
       </c>
@@ -7768,14 +7492,8 @@
       <c r="AT46">
         <v>0</v>
       </c>
-      <c r="AU46">
-        <v>487.142857142857</v>
-      </c>
-      <c r="AV46">
-        <v>505.26666666666603</v>
-      </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44484</v>
       </c>
@@ -7914,14 +7632,8 @@
       <c r="AT47">
         <v>0</v>
       </c>
-      <c r="AU47">
-        <v>482.57142857142799</v>
-      </c>
-      <c r="AV47">
-        <v>504.76666666666603</v>
-      </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44485</v>
       </c>
@@ -8060,14 +7772,8 @@
       <c r="AT48">
         <v>0</v>
       </c>
-      <c r="AU48">
-        <v>476.85714285714198</v>
-      </c>
-      <c r="AV48">
-        <v>504.433333333333</v>
-      </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44486</v>
       </c>
@@ -8206,14 +7912,8 @@
       <c r="AT49">
         <v>0</v>
       </c>
-      <c r="AU49">
-        <v>472.57142857142799</v>
-      </c>
-      <c r="AV49">
-        <v>496.73333333333301</v>
-      </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44487</v>
       </c>
@@ -8352,14 +8052,8 @@
       <c r="AT50">
         <v>0</v>
       </c>
-      <c r="AU50">
-        <v>474.142857142857</v>
-      </c>
-      <c r="AV50">
-        <v>477.8</v>
-      </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44488</v>
       </c>
@@ -8498,14 +8192,8 @@
       <c r="AT51">
         <v>0</v>
       </c>
-      <c r="AU51">
-        <v>482</v>
-      </c>
-      <c r="AV51">
-        <v>484.03333333333302</v>
-      </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44489</v>
       </c>
@@ -8644,14 +8332,8 @@
       <c r="AT52">
         <v>0</v>
       </c>
-      <c r="AU52">
-        <v>482.85714285714198</v>
-      </c>
-      <c r="AV52">
-        <v>502.26666666666603</v>
-      </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44490</v>
       </c>
@@ -8790,14 +8472,8 @@
       <c r="AT53">
         <v>0</v>
       </c>
-      <c r="AU53">
-        <v>490.142857142857</v>
-      </c>
-      <c r="AV53">
-        <v>503</v>
-      </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44491</v>
       </c>
@@ -8936,14 +8612,8 @@
       <c r="AT54">
         <v>0</v>
       </c>
-      <c r="AU54">
-        <v>496.71428571428498</v>
-      </c>
-      <c r="AV54">
-        <v>503.8</v>
-      </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44492</v>
       </c>
@@ -9082,14 +8752,8 @@
       <c r="AT55">
         <v>0</v>
       </c>
-      <c r="AU55">
-        <v>501.71428571428498</v>
-      </c>
-      <c r="AV55">
-        <v>504.33333333333297</v>
-      </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44493</v>
       </c>
@@ -9228,14 +8892,8 @@
       <c r="AT56">
         <v>0</v>
       </c>
-      <c r="AU56">
-        <v>509.142857142857</v>
-      </c>
-      <c r="AV56">
-        <v>499.3</v>
-      </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44494</v>
       </c>
@@ -9374,14 +9032,8 @@
       <c r="AT57">
         <v>1</v>
       </c>
-      <c r="AU57">
-        <v>508.142857142857</v>
-      </c>
-      <c r="AV57">
-        <v>480.73333333333301</v>
-      </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44495</v>
       </c>
@@ -9520,14 +9172,8 @@
       <c r="AT58">
         <v>0</v>
       </c>
-      <c r="AU58">
-        <v>501.142857142857</v>
-      </c>
-      <c r="AV58">
-        <v>486.13333333333298</v>
-      </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44496</v>
       </c>
@@ -9666,14 +9312,8 @@
       <c r="AT59">
         <v>0</v>
       </c>
-      <c r="AU59">
-        <v>503.42857142857099</v>
-      </c>
-      <c r="AV59">
-        <v>504.36666666666599</v>
-      </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44497</v>
       </c>
@@ -9812,14 +9452,8 @@
       <c r="AT60">
         <v>0</v>
       </c>
-      <c r="AU60">
-        <v>503</v>
-      </c>
-      <c r="AV60">
-        <v>503.933333333333</v>
-      </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44498</v>
       </c>
@@ -9958,14 +9592,8 @@
       <c r="AT61">
         <v>0</v>
       </c>
-      <c r="AU61">
-        <v>505</v>
-      </c>
-      <c r="AV61">
-        <v>504.86666666666599</v>
-      </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44499</v>
       </c>
@@ -10104,14 +9732,8 @@
       <c r="AT62">
         <v>0</v>
       </c>
-      <c r="AU62">
-        <v>507.42857142857099</v>
-      </c>
-      <c r="AV62">
-        <v>505.3</v>
-      </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44500</v>
       </c>
@@ -10250,14 +9872,8 @@
       <c r="AT63">
         <v>0</v>
       </c>
-      <c r="AU63">
-        <v>505.57142857142799</v>
-      </c>
-      <c r="AV63">
-        <v>499.36666666666599</v>
-      </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44501</v>
       </c>
@@ -10396,14 +10012,8 @@
       <c r="AT64">
         <v>0</v>
       </c>
-      <c r="AU64">
-        <v>507.142857142857</v>
-      </c>
-      <c r="AV64">
-        <v>480.5</v>
-      </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44502</v>
       </c>
@@ -10542,14 +10152,8 @@
       <c r="AT65">
         <v>0</v>
       </c>
-      <c r="AU65">
-        <v>510.85714285714198</v>
-      </c>
-      <c r="AV65">
-        <v>486.36666666666599</v>
-      </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44503</v>
       </c>
@@ -10688,14 +10292,8 @@
       <c r="AT66">
         <v>0</v>
       </c>
-      <c r="AU66">
-        <v>513.57142857142799</v>
-      </c>
-      <c r="AV66">
-        <v>505.03333333333302</v>
-      </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44504</v>
       </c>
@@ -10834,14 +10432,8 @@
       <c r="AT67">
         <v>0</v>
       </c>
-      <c r="AU67">
-        <v>520.28571428571399</v>
-      </c>
-      <c r="AV67">
-        <v>507.13333333333298</v>
-      </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44505</v>
       </c>
@@ -10980,14 +10572,8 @@
       <c r="AT68">
         <v>0</v>
       </c>
-      <c r="AU68">
-        <v>524.28571428571399</v>
-      </c>
-      <c r="AV68">
-        <v>508.8</v>
-      </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44506</v>
       </c>
@@ -11126,14 +10712,8 @@
       <c r="AT69">
         <v>0</v>
       </c>
-      <c r="AU69">
-        <v>524.28571428571399</v>
-      </c>
-      <c r="AV69">
-        <v>509.53333333333302</v>
-      </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44507</v>
       </c>
@@ -11272,14 +10852,8 @@
       <c r="AT70">
         <v>0</v>
       </c>
-      <c r="AU70">
-        <v>521</v>
-      </c>
-      <c r="AV70">
-        <v>503.26666666666603</v>
-      </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44508</v>
       </c>
@@ -11418,14 +10992,8 @@
       <c r="AT71">
         <v>0</v>
       </c>
-      <c r="AU71">
-        <v>517.57142857142799</v>
-      </c>
-      <c r="AV71">
-        <v>484.433333333333</v>
-      </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44509</v>
       </c>
@@ -11564,14 +11132,8 @@
       <c r="AT72">
         <v>0</v>
       </c>
-      <c r="AU72">
-        <v>521.85714285714198</v>
-      </c>
-      <c r="AV72">
-        <v>491</v>
-      </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44510</v>
       </c>
@@ -11710,14 +11272,8 @@
       <c r="AT73">
         <v>0</v>
       </c>
-      <c r="AU73">
-        <v>522.28571428571399</v>
-      </c>
-      <c r="AV73">
-        <v>510.46666666666601</v>
-      </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44511</v>
       </c>
@@ -11856,14 +11412,8 @@
       <c r="AT74">
         <v>0</v>
       </c>
-      <c r="AU74">
-        <v>515.142857142857</v>
-      </c>
-      <c r="AV74">
-        <v>511.63333333333298</v>
-      </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44512</v>
       </c>
@@ -12002,14 +11552,8 @@
       <c r="AT75">
         <v>0</v>
       </c>
-      <c r="AU75">
-        <v>505.57142857142799</v>
-      </c>
-      <c r="AV75">
-        <v>511.46666666666601</v>
-      </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44513</v>
       </c>
@@ -12148,14 +11692,8 @@
       <c r="AT76">
         <v>0</v>
       </c>
-      <c r="AU76">
-        <v>499.142857142857</v>
-      </c>
-      <c r="AV76">
-        <v>512.33333333333303</v>
-      </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44514</v>
       </c>
@@ -12294,14 +11832,8 @@
       <c r="AT77">
         <v>0</v>
       </c>
-      <c r="AU77">
-        <v>501.142857142857</v>
-      </c>
-      <c r="AV77">
-        <v>507.6</v>
-      </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44515</v>
       </c>
@@ -12440,14 +11972,8 @@
       <c r="AT78">
         <v>0</v>
       </c>
-      <c r="AU78">
-        <v>501.57142857142799</v>
-      </c>
-      <c r="AV78">
-        <v>490.2</v>
-      </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44516</v>
       </c>
@@ -12586,14 +12112,8 @@
       <c r="AT79">
         <v>0</v>
       </c>
-      <c r="AU79">
-        <v>489.28571428571399</v>
-      </c>
-      <c r="AV79">
-        <v>494.9</v>
-      </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44517</v>
       </c>
@@ -12732,14 +12252,8 @@
       <c r="AT80">
         <v>0</v>
       </c>
-      <c r="AU80">
-        <v>479.57142857142799</v>
-      </c>
-      <c r="AV80">
-        <v>511.73333333333301</v>
-      </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44518</v>
       </c>
@@ -12878,14 +12392,8 @@
       <c r="AT81">
         <v>0</v>
       </c>
-      <c r="AU81">
-        <v>484</v>
-      </c>
-      <c r="AV81">
-        <v>512.1</v>
-      </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44519</v>
       </c>
@@ -13024,14 +12532,8 @@
       <c r="AT82">
         <v>0</v>
       </c>
-      <c r="AU82">
-        <v>482.28571428571399</v>
-      </c>
-      <c r="AV82">
-        <v>511.33333333333297</v>
-      </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44520</v>
       </c>
@@ -13170,14 +12672,8 @@
       <c r="AT83">
         <v>0</v>
       </c>
-      <c r="AU83">
-        <v>490.85714285714198</v>
-      </c>
-      <c r="AV83">
-        <v>512.5</v>
-      </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44521</v>
       </c>
@@ -13316,14 +12812,8 @@
       <c r="AT84">
         <v>0</v>
       </c>
-      <c r="AU84">
-        <v>492.142857142857</v>
-      </c>
-      <c r="AV84">
-        <v>506.53333333333302</v>
-      </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44522</v>
       </c>
@@ -13462,14 +12952,8 @@
       <c r="AT85">
         <v>0</v>
       </c>
-      <c r="AU85">
-        <v>492.57142857142799</v>
-      </c>
-      <c r="AV85">
-        <v>488.06666666666598</v>
-      </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44523</v>
       </c>
@@ -13608,14 +13092,8 @@
       <c r="AT86">
         <v>0</v>
       </c>
-      <c r="AU86">
-        <v>499.71428571428498</v>
-      </c>
-      <c r="AV86">
-        <v>492.7</v>
-      </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44524</v>
       </c>
@@ -13754,14 +13232,8 @@
       <c r="AT87">
         <v>0</v>
       </c>
-      <c r="AU87">
-        <v>505.42857142857099</v>
-      </c>
-      <c r="AV87">
-        <v>511.1</v>
-      </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44525</v>
       </c>
@@ -13900,14 +13372,8 @@
       <c r="AT88">
         <v>1</v>
       </c>
-      <c r="AU88">
-        <v>495.71428571428498</v>
-      </c>
-      <c r="AV88">
-        <v>510.83333333333297</v>
-      </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44526</v>
       </c>
@@ -14046,14 +13512,8 @@
       <c r="AT89">
         <v>0</v>
       </c>
-      <c r="AU89">
-        <v>418.71428571428498</v>
-      </c>
-      <c r="AV89">
-        <v>491.56666666666598</v>
-      </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44527</v>
       </c>
@@ -14192,14 +13652,8 @@
       <c r="AT90">
         <v>0</v>
       </c>
-      <c r="AU90">
-        <v>380.142857142857</v>
-      </c>
-      <c r="AV90">
-        <v>483.83333333333297</v>
-      </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44528</v>
       </c>
@@ -14338,14 +13792,8 @@
       <c r="AT91">
         <v>0</v>
       </c>
-      <c r="AU91">
-        <v>368.57142857142799</v>
-      </c>
-      <c r="AV91">
-        <v>474.7</v>
-      </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44529</v>
       </c>
@@ -14484,14 +13932,8 @@
       <c r="AT92">
         <v>0</v>
       </c>
-      <c r="AU92">
-        <v>366.57142857142799</v>
-      </c>
-      <c r="AV92">
-        <v>455.2</v>
-      </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44530</v>
       </c>
@@ -14630,14 +14072,8 @@
       <c r="AT93">
         <v>0</v>
       </c>
-      <c r="AU93">
-        <v>366.71428571428498</v>
-      </c>
-      <c r="AV93">
-        <v>460.3</v>
-      </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44531</v>
       </c>
@@ -14776,14 +14212,8 @@
       <c r="AT94">
         <v>0</v>
       </c>
-      <c r="AU94">
-        <v>370</v>
-      </c>
-      <c r="AV94">
-        <v>479.1</v>
-      </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44532</v>
       </c>
@@ -14922,14 +14352,8 @@
       <c r="AT95">
         <v>0</v>
       </c>
-      <c r="AU95">
-        <v>374.85714285714198</v>
-      </c>
-      <c r="AV95">
-        <v>479.1</v>
-      </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44533</v>
       </c>
@@ -15068,14 +14492,8 @@
       <c r="AT96">
         <v>0</v>
       </c>
-      <c r="AU96">
-        <v>462</v>
-      </c>
-      <c r="AV96">
-        <v>479.53333333333302</v>
-      </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44534</v>
       </c>
@@ -15214,14 +14632,8 @@
       <c r="AT97">
         <v>0</v>
       </c>
-      <c r="AU97">
-        <v>498.85714285714198</v>
-      </c>
-      <c r="AV97">
-        <v>478.83333333333297</v>
-      </c>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44535</v>
       </c>
@@ -15360,14 +14772,8 @@
       <c r="AT98">
         <v>0</v>
       </c>
-      <c r="AU98">
-        <v>519</v>
-      </c>
-      <c r="AV98">
-        <v>473.46666666666601</v>
-      </c>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44536</v>
       </c>
@@ -15506,14 +14912,8 @@
       <c r="AT99">
         <v>0</v>
       </c>
-      <c r="AU99">
-        <v>524.142857142857</v>
-      </c>
-      <c r="AV99">
-        <v>455.166666666666</v>
-      </c>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44537</v>
       </c>
@@ -15652,14 +15052,8 @@
       <c r="AT100">
         <v>0</v>
       </c>
-      <c r="AU100">
-        <v>521.142857142857</v>
-      </c>
-      <c r="AV100">
-        <v>460.33333333333297</v>
-      </c>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44538</v>
       </c>
@@ -15798,14 +15192,8 @@
       <c r="AT101">
         <v>0</v>
       </c>
-      <c r="AU101">
-        <v>518.142857142857</v>
-      </c>
-      <c r="AV101">
-        <v>479.23333333333301</v>
-      </c>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44539</v>
       </c>
@@ -15944,14 +15332,8 @@
       <c r="AT102">
         <v>1</v>
       </c>
-      <c r="AU102">
-        <v>512.28571428571399</v>
-      </c>
-      <c r="AV102">
-        <v>476.86666666666599</v>
-      </c>
     </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44540</v>
       </c>
@@ -16090,14 +15472,8 @@
       <c r="AT103">
         <v>0</v>
       </c>
-      <c r="AU103">
-        <v>511.42857142857099</v>
-      </c>
-      <c r="AV103">
-        <v>477</v>
-      </c>
     </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44541</v>
       </c>
@@ -16236,14 +15612,8 @@
       <c r="AT104">
         <v>0</v>
       </c>
-      <c r="AU104">
-        <v>505.42857142857099</v>
-      </c>
-      <c r="AV104">
-        <v>476.56666666666598</v>
-      </c>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44542</v>
       </c>
@@ -16382,14 +15752,8 @@
       <c r="AT105">
         <v>0</v>
       </c>
-      <c r="AU105">
-        <v>494.42857142857099</v>
-      </c>
-      <c r="AV105">
-        <v>470.86666666666599</v>
-      </c>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44543</v>
       </c>
@@ -16528,14 +15892,8 @@
       <c r="AT106">
         <v>0</v>
       </c>
-      <c r="AU106">
-        <v>492.28571428571399</v>
-      </c>
-      <c r="AV106">
-        <v>453.56666666666598</v>
-      </c>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44544</v>
       </c>
@@ -16674,14 +16032,8 @@
       <c r="AT107">
         <v>0</v>
       </c>
-      <c r="AU107">
-        <v>491.142857142857</v>
-      </c>
-      <c r="AV107">
-        <v>458</v>
-      </c>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44545</v>
       </c>
@@ -16820,14 +16172,8 @@
       <c r="AT108">
         <v>0</v>
       </c>
-      <c r="AU108">
-        <v>487.42857142857099</v>
-      </c>
-      <c r="AV108">
-        <v>475.933333333333</v>
-      </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44546</v>
       </c>
@@ -16966,14 +16312,8 @@
       <c r="AT109">
         <v>0</v>
       </c>
-      <c r="AU109">
-        <v>486.28571428571399</v>
-      </c>
-      <c r="AV109">
-        <v>476.166666666666</v>
-      </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44547</v>
       </c>
@@ -17112,14 +16452,8 @@
       <c r="AT110">
         <v>0</v>
       </c>
-      <c r="AU110">
-        <v>471.57142857142799</v>
-      </c>
-      <c r="AV110">
-        <v>475.13333333333298</v>
-      </c>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44548</v>
       </c>
@@ -17258,14 +16592,8 @@
       <c r="AT111">
         <v>0</v>
       </c>
-      <c r="AU111">
-        <v>465.57142857142799</v>
-      </c>
-      <c r="AV111">
-        <v>472.26666666666603</v>
-      </c>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44549</v>
       </c>
@@ -17404,14 +16732,8 @@
       <c r="AT112">
         <v>0</v>
       </c>
-      <c r="AU112">
-        <v>460.42857142857099</v>
-      </c>
-      <c r="AV112">
-        <v>465.76666666666603</v>
-      </c>
     </row>
-    <row r="113" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44550</v>
       </c>
@@ -17550,14 +16872,8 @@
       <c r="AT113">
         <v>0</v>
       </c>
-      <c r="AU113">
-        <v>459.85714285714198</v>
-      </c>
-      <c r="AV113">
-        <v>446.33333333333297</v>
-      </c>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44551</v>
       </c>
@@ -17696,14 +17012,8 @@
       <c r="AT114">
         <v>0</v>
       </c>
-      <c r="AU114">
-        <v>455</v>
-      </c>
-      <c r="AV114">
-        <v>449.33333333333297</v>
-      </c>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44552</v>
       </c>
@@ -17842,14 +17152,8 @@
       <c r="AT115">
         <v>0</v>
       </c>
-      <c r="AU115">
-        <v>445.142857142857</v>
-      </c>
-      <c r="AV115">
-        <v>464.86666666666599</v>
-      </c>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44553</v>
       </c>
@@ -17988,14 +17292,8 @@
       <c r="AT116">
         <v>0</v>
       </c>
-      <c r="AU116">
-        <v>440.71428571428498</v>
-      </c>
-      <c r="AV116">
-        <v>462.4</v>
-      </c>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44554</v>
       </c>
@@ -18134,14 +17432,8 @@
       <c r="AT117">
         <v>0</v>
       </c>
-      <c r="AU117">
-        <v>438</v>
-      </c>
-      <c r="AV117">
-        <v>459.4</v>
-      </c>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44555</v>
       </c>
@@ -18280,14 +17572,8 @@
       <c r="AT118">
         <v>0</v>
       </c>
-      <c r="AU118">
-        <v>387.57142857142799</v>
-      </c>
-      <c r="AV118">
-        <v>447.03333333333302</v>
-      </c>
     </row>
-    <row r="119" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44556</v>
       </c>
@@ -18426,14 +17712,8 @@
       <c r="AT119">
         <v>0</v>
       </c>
-      <c r="AU119">
-        <v>333.85714285714198</v>
-      </c>
-      <c r="AV119">
-        <v>445.96666666666601</v>
-      </c>
     </row>
-    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44557</v>
       </c>
@@ -18572,14 +17852,8 @@
       <c r="AT120">
         <v>0</v>
       </c>
-      <c r="AU120">
-        <v>327.85714285714198</v>
-      </c>
-      <c r="AV120">
-        <v>434.13333333333298</v>
-      </c>
     </row>
-    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44558</v>
       </c>
@@ -18718,14 +17992,8 @@
       <c r="AT121">
         <v>0</v>
       </c>
-      <c r="AU121">
-        <v>320.71428571428498</v>
-      </c>
-      <c r="AV121">
-        <v>438.166666666666</v>
-      </c>
     </row>
-    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44559</v>
       </c>
@@ -18864,14 +18132,8 @@
       <c r="AT122">
         <v>0</v>
       </c>
-      <c r="AU122">
-        <v>327.85714285714198</v>
-      </c>
-      <c r="AV122">
-        <v>455.83333333333297</v>
-      </c>
     </row>
-    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44560</v>
       </c>
@@ -19010,14 +18272,8 @@
       <c r="AT123">
         <v>0</v>
       </c>
-      <c r="AU123">
-        <v>332.28571428571399</v>
-      </c>
-      <c r="AV123">
-        <v>454.36666666666599</v>
-      </c>
     </row>
-    <row r="124" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44561</v>
       </c>
@@ -19156,14 +18412,8 @@
       <c r="AT124">
         <v>0</v>
       </c>
-      <c r="AU124">
-        <v>336</v>
-      </c>
-      <c r="AV124">
-        <v>451.46666666666601</v>
-      </c>
     </row>
-    <row r="125" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44562</v>
       </c>
@@ -19302,14 +18552,8 @@
       <c r="AT125">
         <v>0</v>
       </c>
-      <c r="AU125">
-        <v>375.42857142857099</v>
-      </c>
-      <c r="AV125">
-        <v>447.166666666666</v>
-      </c>
     </row>
-    <row r="126" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44563</v>
       </c>
@@ -19448,14 +18692,8 @@
       <c r="AT126">
         <v>0</v>
       </c>
-      <c r="AU126">
-        <v>379.85714285714198</v>
-      </c>
-      <c r="AV126">
-        <v>426.8</v>
-      </c>
     </row>
-    <row r="127" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44564</v>
       </c>
@@ -19594,14 +18832,8 @@
       <c r="AT127">
         <v>0</v>
       </c>
-      <c r="AU127">
-        <v>380.142857142857</v>
-      </c>
-      <c r="AV127">
-        <v>406.433333333333</v>
-      </c>
     </row>
-    <row r="128" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44565</v>
       </c>
@@ -19740,14 +18972,8 @@
       <c r="AT128">
         <v>0</v>
       </c>
-      <c r="AU128">
-        <v>382.85714285714198</v>
-      </c>
-      <c r="AV128">
-        <v>406.4</v>
-      </c>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44566</v>
       </c>
@@ -19886,14 +19112,8 @@
       <c r="AT129">
         <v>0</v>
       </c>
-      <c r="AU129">
-        <v>380.71428571428498</v>
-      </c>
-      <c r="AV129">
-        <v>422.36666666666599</v>
-      </c>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44567</v>
       </c>
@@ -20032,14 +19252,8 @@
       <c r="AT130">
         <v>0</v>
       </c>
-      <c r="AU130">
-        <v>384.42857142857099</v>
-      </c>
-      <c r="AV130">
-        <v>422.46666666666601</v>
-      </c>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44568</v>
       </c>
@@ -20178,14 +19392,8 @@
       <c r="AT131">
         <v>1</v>
       </c>
-      <c r="AU131">
-        <v>383.71428571428498</v>
-      </c>
-      <c r="AV131">
-        <v>420.1</v>
-      </c>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44569</v>
       </c>
@@ -20324,14 +19532,8 @@
       <c r="AT132">
         <v>0</v>
       </c>
-      <c r="AU132">
-        <v>393.85714285714198</v>
-      </c>
-      <c r="AV132">
-        <v>419.53333333333302</v>
-      </c>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44570</v>
       </c>
@@ -20470,14 +19672,8 @@
       <c r="AT133">
         <v>0</v>
       </c>
-      <c r="AU133">
-        <v>449.85714285714198</v>
-      </c>
-      <c r="AV133">
-        <v>412.433333333333</v>
-      </c>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44571</v>
       </c>
@@ -20616,14 +19812,8 @@
       <c r="AT134">
         <v>0</v>
       </c>
-      <c r="AU134">
-        <v>456.57142857142799</v>
-      </c>
-      <c r="AV134">
-        <v>395.03333333333302</v>
-      </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44572</v>
       </c>
@@ -20762,14 +19952,8 @@
       <c r="AT135">
         <v>0</v>
       </c>
-      <c r="AU135">
-        <v>463.57142857142799</v>
-      </c>
-      <c r="AV135">
-        <v>399.2</v>
-      </c>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44573</v>
       </c>
@@ -20908,14 +20092,8 @@
       <c r="AT136">
         <v>0</v>
       </c>
-      <c r="AU136">
-        <v>461.42857142857099</v>
-      </c>
-      <c r="AV136">
-        <v>415.166666666666</v>
-      </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44574</v>
       </c>
@@ -21054,14 +20232,8 @@
       <c r="AT137">
         <v>0</v>
       </c>
-      <c r="AU137">
-        <v>460.85714285714198</v>
-      </c>
-      <c r="AV137">
-        <v>415.4</v>
-      </c>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44575</v>
       </c>
@@ -21200,14 +20372,8 @@
       <c r="AT138">
         <v>1</v>
       </c>
-      <c r="AU138">
-        <v>462.42857142857099</v>
-      </c>
-      <c r="AV138">
-        <v>414.26666666666603</v>
-      </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44576</v>
       </c>
@@ -21346,14 +20512,8 @@
       <c r="AT139">
         <v>0</v>
       </c>
-      <c r="AU139">
-        <v>468.42857142857099</v>
-      </c>
-      <c r="AV139">
-        <v>415.36666666666599</v>
-      </c>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44577</v>
       </c>
@@ -21492,14 +20652,8 @@
       <c r="AT140">
         <v>0</v>
       </c>
-      <c r="AU140">
-        <v>461.142857142857</v>
-      </c>
-      <c r="AV140">
-        <v>410</v>
-      </c>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44578</v>
       </c>
@@ -21638,14 +20792,8 @@
       <c r="AT141">
         <v>0</v>
       </c>
-      <c r="AU141">
-        <v>460.142857142857</v>
-      </c>
-      <c r="AV141">
-        <v>393.76666666666603</v>
-      </c>
     </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44579</v>
       </c>
@@ -21784,14 +20932,8 @@
       <c r="AT142">
         <v>0</v>
       </c>
-      <c r="AU142">
-        <v>445.85714285714198</v>
-      </c>
-      <c r="AV142">
-        <v>395.8</v>
-      </c>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44580</v>
       </c>
@@ -21930,14 +21072,8 @@
       <c r="AT143">
         <v>0</v>
       </c>
-      <c r="AU143">
-        <v>438.85714285714198</v>
-      </c>
-      <c r="AV143">
-        <v>410.26666666666603</v>
-      </c>
     </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44581</v>
       </c>
@@ -22076,14 +21212,8 @@
       <c r="AT144">
         <v>0</v>
       </c>
-      <c r="AU144">
-        <v>426.71428571428498</v>
-      </c>
-      <c r="AV144">
-        <v>408.8</v>
-      </c>
     </row>
-    <row r="145" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44582</v>
       </c>
@@ -22222,14 +21352,8 @@
       <c r="AT145">
         <v>0</v>
       </c>
-      <c r="AU145">
-        <v>418.142857142857</v>
-      </c>
-      <c r="AV145">
-        <v>407.96666666666601</v>
-      </c>
     </row>
-    <row r="146" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44583</v>
       </c>
@@ -22368,14 +21492,8 @@
       <c r="AT146">
         <v>0</v>
       </c>
-      <c r="AU146">
-        <v>404.85714285714198</v>
-      </c>
-      <c r="AV146">
-        <v>407</v>
-      </c>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44584</v>
       </c>
@@ -22514,14 +21632,8 @@
       <c r="AT147">
         <v>0</v>
       </c>
-      <c r="AU147">
-        <v>400.142857142857</v>
-      </c>
-      <c r="AV147">
-        <v>401.166666666666</v>
-      </c>
     </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44585</v>
       </c>
@@ -22660,14 +21772,8 @@
       <c r="AT148">
         <v>0</v>
       </c>
-      <c r="AU148">
-        <v>400.42857142857099</v>
-      </c>
-      <c r="AV148">
-        <v>396.76666666666603</v>
-      </c>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44586</v>
       </c>
@@ -22806,14 +21912,8 @@
       <c r="AT149">
         <v>0</v>
       </c>
-      <c r="AU149">
-        <v>410.28571428571399</v>
-      </c>
-      <c r="AV149">
-        <v>413.63333333333298</v>
-      </c>
     </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44587</v>
       </c>
@@ -22952,14 +22052,8 @@
       <c r="AT150">
         <v>0</v>
       </c>
-      <c r="AU150">
-        <v>420</v>
-      </c>
-      <c r="AV150">
-        <v>431.76666666666603</v>
-      </c>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44588</v>
       </c>
@@ -23098,14 +22192,8 @@
       <c r="AT151">
         <v>0</v>
       </c>
-      <c r="AU151">
-        <v>424.57142857142799</v>
-      </c>
-      <c r="AV151">
-        <v>433.03333333333302</v>
-      </c>
     </row>
-    <row r="152" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44589</v>
       </c>
@@ -23244,14 +22332,8 @@
       <c r="AT152">
         <v>0</v>
       </c>
-      <c r="AU152">
-        <v>426.142857142857</v>
-      </c>
-      <c r="AV152">
-        <v>430.9</v>
-      </c>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44590</v>
       </c>
@@ -23390,14 +22472,8 @@
       <c r="AT153">
         <v>0</v>
       </c>
-      <c r="AU153">
-        <v>433.42857142857099</v>
-      </c>
-      <c r="AV153">
-        <v>430.6</v>
-      </c>
     </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44591</v>
       </c>
@@ -23536,14 +22612,8 @@
       <c r="AT154">
         <v>0</v>
       </c>
-      <c r="AU154">
-        <v>434.57142857142799</v>
-      </c>
-      <c r="AV154">
-        <v>424.166666666666</v>
-      </c>
     </row>
-    <row r="155" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44592</v>
       </c>
@@ -23682,14 +22752,8 @@
       <c r="AT155">
         <v>1</v>
       </c>
-      <c r="AU155">
-        <v>436</v>
-      </c>
-      <c r="AV155">
-        <v>410.9</v>
-      </c>
     </row>
-    <row r="156" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44593</v>
       </c>
@@ -23828,14 +22892,8 @@
       <c r="AT156">
         <v>0</v>
       </c>
-      <c r="AU156">
-        <v>426.142857142857</v>
-      </c>
-      <c r="AV156">
-        <v>424.433333333333</v>
-      </c>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44594</v>
       </c>
@@ -23974,14 +23032,8 @@
       <c r="AT157">
         <v>0</v>
       </c>
-      <c r="AU157">
-        <v>429.42857142857099</v>
-      </c>
-      <c r="AV157">
-        <v>443.26666666666603</v>
-      </c>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44595</v>
       </c>
@@ -24120,14 +23172,8 @@
       <c r="AT158">
         <v>0</v>
       </c>
-      <c r="AU158">
-        <v>425.142857142857</v>
-      </c>
-      <c r="AV158">
-        <v>442.9</v>
-      </c>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44596</v>
       </c>
@@ -24266,14 +23312,8 @@
       <c r="AT159">
         <v>0</v>
       </c>
-      <c r="AU159">
-        <v>405.42857142857099</v>
-      </c>
-      <c r="AV159">
-        <v>436.666666666666</v>
-      </c>
     </row>
-    <row r="160" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44597</v>
       </c>
@@ -24412,14 +23452,8 @@
       <c r="AT160">
         <v>0</v>
       </c>
-      <c r="AU160">
-        <v>384.57142857142799</v>
-      </c>
-      <c r="AV160">
-        <v>430.63333333333298</v>
-      </c>
     </row>
-    <row r="161" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44598</v>
       </c>
@@ -24558,14 +23592,8 @@
       <c r="AT161">
         <v>0</v>
       </c>
-      <c r="AU161">
-        <v>387.28571428571399</v>
-      </c>
-      <c r="AV161">
-        <v>425</v>
-      </c>
     </row>
-    <row r="162" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44599</v>
       </c>
@@ -24704,14 +23732,8 @@
       <c r="AT162">
         <v>0</v>
       </c>
-      <c r="AU162">
-        <v>388.57142857142799</v>
-      </c>
-      <c r="AV162">
-        <v>409.666666666666</v>
-      </c>
     </row>
-    <row r="163" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44600</v>
       </c>
@@ -24850,14 +23872,8 @@
       <c r="AT163">
         <v>0</v>
       </c>
-      <c r="AU163">
-        <v>396</v>
-      </c>
-      <c r="AV163">
-        <v>411.86666666666599</v>
-      </c>
     </row>
-    <row r="164" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44601</v>
       </c>
@@ -24996,14 +24012,8 @@
       <c r="AT164">
         <v>0</v>
       </c>
-      <c r="AU164">
-        <v>391.142857142857</v>
-      </c>
-      <c r="AV164">
-        <v>428</v>
-      </c>
     </row>
-    <row r="165" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44602</v>
       </c>
@@ -25142,14 +24152,8 @@
       <c r="AT165">
         <v>0</v>
       </c>
-      <c r="AU165">
-        <v>398.28571428571399</v>
-      </c>
-      <c r="AV165">
-        <v>427.666666666666</v>
-      </c>
     </row>
-    <row r="166" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44603</v>
       </c>
@@ -25288,14 +24292,8 @@
       <c r="AT166">
         <v>0</v>
       </c>
-      <c r="AU166">
-        <v>416</v>
-      </c>
-      <c r="AV166">
-        <v>426.06666666666598</v>
-      </c>
     </row>
-    <row r="167" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44604</v>
       </c>
@@ -25434,14 +24432,8 @@
       <c r="AT167">
         <v>0</v>
       </c>
-      <c r="AU167">
-        <v>435.71428571428498</v>
-      </c>
-      <c r="AV167">
-        <v>424.76666666666603</v>
-      </c>
     </row>
-    <row r="168" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44605</v>
       </c>
@@ -25580,14 +24572,8 @@
       <c r="AT168">
         <v>0</v>
       </c>
-      <c r="AU168">
-        <v>436.142857142857</v>
-      </c>
-      <c r="AV168">
-        <v>418.86666666666599</v>
-      </c>
     </row>
-    <row r="169" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44606</v>
       </c>
@@ -25726,14 +24712,8 @@
       <c r="AT169">
         <v>0</v>
       </c>
-      <c r="AU169">
-        <v>431.57142857142799</v>
-      </c>
-      <c r="AV169">
-        <v>401.06666666666598</v>
-      </c>
     </row>
-    <row r="170" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44607</v>
       </c>
@@ -25872,14 +24852,8 @@
       <c r="AT170">
         <v>0</v>
       </c>
-      <c r="AU170">
-        <v>425.85714285714198</v>
-      </c>
-      <c r="AV170">
-        <v>403.63333333333298</v>
-      </c>
     </row>
-    <row r="171" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44608</v>
       </c>
@@ -26018,14 +24992,8 @@
       <c r="AT171">
         <v>0</v>
       </c>
-      <c r="AU171">
-        <v>408.57142857142799</v>
-      </c>
-      <c r="AV171">
-        <v>415.96666666666601</v>
-      </c>
     </row>
-    <row r="172" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44609</v>
       </c>
@@ -26164,14 +25132,8 @@
       <c r="AT172">
         <v>0</v>
       </c>
-      <c r="AU172">
-        <v>402.71428571428498</v>
-      </c>
-      <c r="AV172">
-        <v>417.6</v>
-      </c>
     </row>
-    <row r="173" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44610</v>
       </c>
@@ -26310,14 +25272,8 @@
       <c r="AT173">
         <v>0</v>
       </c>
-      <c r="AU173">
-        <v>394</v>
-      </c>
-      <c r="AV173">
-        <v>415.6</v>
-      </c>
     </row>
-    <row r="174" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44611</v>
       </c>
@@ -26456,14 +25412,8 @@
       <c r="AT174">
         <v>0</v>
       </c>
-      <c r="AU174">
-        <v>389.57142857142799</v>
-      </c>
-      <c r="AV174">
-        <v>416.1</v>
-      </c>
     </row>
-    <row r="175" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44612</v>
       </c>
@@ -26602,14 +25552,8 @@
       <c r="AT175">
         <v>0</v>
       </c>
-      <c r="AU175">
-        <v>380.142857142857</v>
-      </c>
-      <c r="AV175">
-        <v>410</v>
-      </c>
     </row>
-    <row r="176" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44613</v>
       </c>
@@ -26748,14 +25692,8 @@
       <c r="AT176">
         <v>0</v>
       </c>
-      <c r="AU176">
-        <v>380.42857142857099</v>
-      </c>
-      <c r="AV176">
-        <v>395.36666666666599</v>
-      </c>
     </row>
-    <row r="177" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44614</v>
       </c>
@@ -26894,14 +25832,8 @@
       <c r="AT177">
         <v>0</v>
       </c>
-      <c r="AU177">
-        <v>382.85714285714198</v>
-      </c>
-      <c r="AV177">
-        <v>399.6</v>
-      </c>
     </row>
-    <row r="178" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44615</v>
       </c>
@@ -27040,14 +25972,8 @@
       <c r="AT178">
         <v>0</v>
       </c>
-      <c r="AU178">
-        <v>386.71428571428498</v>
-      </c>
-      <c r="AV178">
-        <v>412.76666666666603</v>
-      </c>
     </row>
-    <row r="179" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44616</v>
       </c>
@@ -27186,14 +26112,8 @@
       <c r="AT179">
         <v>0</v>
       </c>
-      <c r="AU179">
-        <v>379.28571428571399</v>
-      </c>
-      <c r="AV179">
-        <v>410.36666666666599</v>
-      </c>
     </row>
-    <row r="180" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44617</v>
       </c>
@@ -27332,14 +26252,8 @@
       <c r="AT180">
         <v>0</v>
       </c>
-      <c r="AU180">
-        <v>375.85714285714198</v>
-      </c>
-      <c r="AV180">
-        <v>405.3</v>
-      </c>
     </row>
-    <row r="181" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44618</v>
       </c>
@@ -27478,14 +26392,8 @@
       <c r="AT181">
         <v>0</v>
       </c>
-      <c r="AU181">
-        <v>375</v>
-      </c>
-      <c r="AV181">
-        <v>404.53333333333302</v>
-      </c>
     </row>
-    <row r="182" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44619</v>
       </c>
@@ -27624,14 +26532,8 @@
       <c r="AT182">
         <v>0</v>
       </c>
-      <c r="AU182">
-        <v>384.42857142857099</v>
-      </c>
-      <c r="AV182">
-        <v>400.26666666666603</v>
-      </c>
     </row>
-    <row r="183" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44620</v>
       </c>
@@ -27770,14 +26672,8 @@
       <c r="AT183">
         <v>0</v>
       </c>
-      <c r="AU183">
-        <v>387.57142857142799</v>
-      </c>
-      <c r="AV183">
-        <v>384.666666666666</v>
-      </c>
     </row>
-    <row r="184" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44621</v>
       </c>
@@ -27916,14 +26812,8 @@
       <c r="AT184">
         <v>0</v>
       </c>
-      <c r="AU184">
-        <v>396.57142857142799</v>
-      </c>
-      <c r="AV184">
-        <v>390.73333333333301</v>
-      </c>
     </row>
-    <row r="185" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44622</v>
       </c>
@@ -28062,14 +26952,8 @@
       <c r="AT185">
         <v>0</v>
       </c>
-      <c r="AU185">
-        <v>416.142857142857</v>
-      </c>
-      <c r="AV185">
-        <v>408.13333333333298</v>
-      </c>
     </row>
-    <row r="186" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44623</v>
       </c>
@@ -28208,14 +27092,8 @@
       <c r="AT186">
         <v>0</v>
       </c>
-      <c r="AU186">
-        <v>427.71428571428498</v>
-      </c>
-      <c r="AV186">
-        <v>410.73333333333301</v>
-      </c>
     </row>
-    <row r="187" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44624</v>
       </c>
@@ -28354,14 +27232,8 @@
       <c r="AT187">
         <v>0</v>
       </c>
-      <c r="AU187">
-        <v>439.71428571428498</v>
-      </c>
-      <c r="AV187">
-        <v>407.7</v>
-      </c>
     </row>
-    <row r="188" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44625</v>
       </c>
@@ -28500,14 +27372,8 @@
       <c r="AT188">
         <v>0</v>
       </c>
-      <c r="AU188">
-        <v>454.57142857142799</v>
-      </c>
-      <c r="AV188">
-        <v>411.4</v>
-      </c>
     </row>
-    <row r="189" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44626</v>
       </c>
@@ -28646,14 +27512,8 @@
       <c r="AT189">
         <v>0</v>
       </c>
-      <c r="AU189">
-        <v>456.57142857142799</v>
-      </c>
-      <c r="AV189">
-        <v>412.2</v>
-      </c>
     </row>
-    <row r="190" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44627</v>
       </c>
@@ -28792,14 +27652,8 @@
       <c r="AT190">
         <v>1</v>
       </c>
-      <c r="AU190">
-        <v>453.85714285714198</v>
-      </c>
-      <c r="AV190">
-        <v>400.83333333333297</v>
-      </c>
     </row>
-    <row r="191" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44628</v>
       </c>
@@ -28938,14 +27792,8 @@
       <c r="AT191">
         <v>0</v>
       </c>
-      <c r="AU191">
-        <v>448.42857142857099</v>
-      </c>
-      <c r="AV191">
-        <v>405</v>
-      </c>
     </row>
-    <row r="192" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44629</v>
       </c>
@@ -29084,14 +27932,8 @@
       <c r="AT192">
         <v>0</v>
       </c>
-      <c r="AU192">
-        <v>437.57142857142799</v>
-      </c>
-      <c r="AV192">
-        <v>419.56666666666598</v>
-      </c>
     </row>
-    <row r="193" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44630</v>
       </c>
@@ -29230,14 +28072,8 @@
       <c r="AT193">
         <v>0</v>
       </c>
-      <c r="AU193">
-        <v>432.57142857142799</v>
-      </c>
-      <c r="AV193">
-        <v>419.26666666666603</v>
-      </c>
     </row>
-    <row r="194" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44631</v>
       </c>
@@ -29376,14 +28212,8 @@
       <c r="AT194">
         <v>0</v>
       </c>
-      <c r="AU194">
-        <v>436.42857142857099</v>
-      </c>
-      <c r="AV194">
-        <v>418.26666666666603</v>
-      </c>
     </row>
-    <row r="195" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44632</v>
       </c>
@@ -29522,14 +28352,8 @@
       <c r="AT195">
         <v>0</v>
       </c>
-      <c r="AU195">
-        <v>424.28571428571399</v>
-      </c>
-      <c r="AV195">
-        <v>417.46666666666601</v>
-      </c>
     </row>
-    <row r="196" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44633</v>
       </c>
@@ -29668,14 +28492,8 @@
       <c r="AT196">
         <v>0</v>
       </c>
-      <c r="AU196">
-        <v>408.57142857142799</v>
-      </c>
-      <c r="AV196">
-        <v>410.46666666666601</v>
-      </c>
     </row>
-    <row r="197" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44634</v>
       </c>
@@ -29814,14 +28632,8 @@
       <c r="AT197">
         <v>0</v>
       </c>
-      <c r="AU197">
-        <v>410.71428571428498</v>
-      </c>
-      <c r="AV197">
-        <v>395</v>
-      </c>
     </row>
-    <row r="198" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44635</v>
       </c>
@@ -29960,14 +28772,8 @@
       <c r="AT198">
         <v>0</v>
       </c>
-      <c r="AU198">
-        <v>418.85714285714198</v>
-      </c>
-      <c r="AV198">
-        <v>400.96666666666601</v>
-      </c>
     </row>
-    <row r="199" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44636</v>
       </c>
@@ -30106,14 +28912,8 @@
       <c r="AT199">
         <v>0</v>
       </c>
-      <c r="AU199">
-        <v>419.57142857142799</v>
-      </c>
-      <c r="AV199">
-        <v>416.76666666666603</v>
-      </c>
     </row>
-    <row r="200" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44637</v>
       </c>
@@ -30252,14 +29052,8 @@
       <c r="AT200">
         <v>0</v>
       </c>
-      <c r="AU200">
-        <v>426.142857142857</v>
-      </c>
-      <c r="AV200">
-        <v>419.33333333333297</v>
-      </c>
     </row>
-    <row r="201" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44638</v>
       </c>
@@ -30398,14 +29192,8 @@
       <c r="AT201">
         <v>0</v>
       </c>
-      <c r="AU201">
-        <v>423</v>
-      </c>
-      <c r="AV201">
-        <v>421.63333333333298</v>
-      </c>
     </row>
-    <row r="202" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44639</v>
       </c>
@@ -30544,14 +29332,8 @@
       <c r="AT202">
         <v>0</v>
       </c>
-      <c r="AU202">
-        <v>411</v>
-      </c>
-      <c r="AV202">
-        <v>419.4</v>
-      </c>
     </row>
-    <row r="203" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44640</v>
       </c>
@@ -30690,14 +29472,8 @@
       <c r="AT203">
         <v>0</v>
       </c>
-      <c r="AU203">
-        <v>422.142857142857</v>
-      </c>
-      <c r="AV203">
-        <v>417.03333333333302</v>
-      </c>
     </row>
-    <row r="204" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44641</v>
       </c>
@@ -30836,14 +29612,8 @@
       <c r="AT204">
         <v>0</v>
       </c>
-      <c r="AU204">
-        <v>418.71428571428498</v>
-      </c>
-      <c r="AV204">
-        <v>401.8</v>
-      </c>
     </row>
-    <row r="205" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44642</v>
       </c>
@@ -30982,14 +29752,8 @@
       <c r="AT205">
         <v>0</v>
       </c>
-      <c r="AU205">
-        <v>410</v>
-      </c>
-      <c r="AV205">
-        <v>407.933333333333</v>
-      </c>
     </row>
-    <row r="206" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44643</v>
       </c>
@@ -31128,14 +29892,8 @@
       <c r="AT206">
         <v>0</v>
       </c>
-      <c r="AU206">
-        <v>401</v>
-      </c>
-      <c r="AV206">
-        <v>421.56666666666598</v>
-      </c>
     </row>
-    <row r="207" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44644</v>
       </c>
@@ -31274,14 +30032,8 @@
       <c r="AT207">
         <v>0</v>
       </c>
-      <c r="AU207">
-        <v>390</v>
-      </c>
-      <c r="AV207">
-        <v>421</v>
-      </c>
     </row>
-    <row r="208" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44645</v>
       </c>
@@ -31420,14 +30172,8 @@
       <c r="AT208">
         <v>0</v>
       </c>
-      <c r="AU208">
-        <v>387.28571428571399</v>
-      </c>
-      <c r="AV208">
-        <v>421.76666666666603</v>
-      </c>
     </row>
-    <row r="209" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44646</v>
       </c>
@@ -31566,14 +30312,8 @@
       <c r="AT209">
         <v>0</v>
       </c>
-      <c r="AU209">
-        <v>396</v>
-      </c>
-      <c r="AV209">
-        <v>423.3</v>
-      </c>
     </row>
-    <row r="210" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44647</v>
       </c>
@@ -31712,14 +30452,8 @@
       <c r="AT210">
         <v>0</v>
       </c>
-      <c r="AU210">
-        <v>390</v>
-      </c>
-      <c r="AV210">
-        <v>420.33333333333297</v>
-      </c>
     </row>
-    <row r="211" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44648</v>
       </c>
@@ -31858,14 +30592,8 @@
       <c r="AT211">
         <v>0</v>
       </c>
-      <c r="AU211">
-        <v>391.71428571428498</v>
-      </c>
-      <c r="AV211">
-        <v>405.7</v>
-      </c>
     </row>
-    <row r="212" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44649</v>
       </c>
@@ -32004,14 +30732,8 @@
       <c r="AT212">
         <v>0</v>
       </c>
-      <c r="AU212">
-        <v>390</v>
-      </c>
-      <c r="AV212">
-        <v>409.23333333333301</v>
-      </c>
     </row>
-    <row r="213" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44650</v>
       </c>
@@ -32150,14 +30872,8 @@
       <c r="AT213">
         <v>0</v>
       </c>
-      <c r="AU213">
-        <v>395.85714285714198</v>
-      </c>
-      <c r="AV213">
-        <v>423.5</v>
-      </c>
     </row>
-    <row r="214" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44651</v>
       </c>
@@ -32296,14 +31012,8 @@
       <c r="AT214">
         <v>0</v>
       </c>
-      <c r="AU214">
-        <v>391.28571428571399</v>
-      </c>
-      <c r="AV214">
-        <v>419.76666666666603</v>
-      </c>
     </row>
-    <row r="215" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44652</v>
       </c>
@@ -32442,14 +31152,8 @@
       <c r="AT215">
         <v>0</v>
       </c>
-      <c r="AU215">
-        <v>389.85714285714198</v>
-      </c>
-      <c r="AV215">
-        <v>415.63333333333298</v>
-      </c>
     </row>
-    <row r="216" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44653</v>
       </c>
@@ -32588,14 +31292,8 @@
       <c r="AT216">
         <v>0</v>
       </c>
-      <c r="AU216">
-        <v>391.28571428571399</v>
-      </c>
-      <c r="AV216">
-        <v>414.8</v>
-      </c>
     </row>
-    <row r="217" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44654</v>
       </c>
@@ -32734,14 +31432,8 @@
       <c r="AT217">
         <v>0</v>
       </c>
-      <c r="AU217">
-        <v>395.85714285714198</v>
-      </c>
-      <c r="AV217">
-        <v>410.1</v>
-      </c>
     </row>
-    <row r="218" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44655</v>
       </c>
@@ -32880,14 +31572,8 @@
       <c r="AT218">
         <v>0</v>
       </c>
-      <c r="AU218">
-        <v>393.71428571428498</v>
-      </c>
-      <c r="AV218">
-        <v>391.5</v>
-      </c>
     </row>
-    <row r="219" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44656</v>
       </c>
@@ -33026,14 +31712,8 @@
       <c r="AT219">
         <v>0</v>
       </c>
-      <c r="AU219">
-        <v>394.85714285714198</v>
-      </c>
-      <c r="AV219">
-        <v>394.83333333333297</v>
-      </c>
     </row>
-    <row r="220" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44657</v>
       </c>
@@ -33172,14 +31852,8 @@
       <c r="AT220">
         <v>0</v>
       </c>
-      <c r="AU220">
-        <v>392.71428571428498</v>
-      </c>
-      <c r="AV220">
-        <v>409.23333333333301</v>
-      </c>
     </row>
-    <row r="221" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44658</v>
       </c>
@@ -33318,14 +31992,8 @@
       <c r="AT221">
         <v>0</v>
       </c>
-      <c r="AU221">
-        <v>401.57142857142799</v>
-      </c>
-      <c r="AV221">
-        <v>408.83333333333297</v>
-      </c>
     </row>
-    <row r="222" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44659</v>
       </c>
@@ -33464,14 +32132,8 @@
       <c r="AT222">
         <v>0</v>
       </c>
-      <c r="AU222">
-        <v>406.71428571428498</v>
-      </c>
-      <c r="AV222">
-        <v>408.433333333333</v>
-      </c>
     </row>
-    <row r="223" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44660</v>
       </c>
@@ -33610,14 +32272,8 @@
       <c r="AT223">
         <v>0</v>
       </c>
-      <c r="AU223">
-        <v>415.142857142857</v>
-      </c>
-      <c r="AV223">
-        <v>410.73333333333301</v>
-      </c>
     </row>
-    <row r="224" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44661</v>
       </c>
@@ -33756,14 +32412,8 @@
       <c r="AT224">
         <v>0</v>
       </c>
-      <c r="AU224">
-        <v>413</v>
-      </c>
-      <c r="AV224">
-        <v>404.63333333333298</v>
-      </c>
     </row>
-    <row r="225" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44662</v>
       </c>
@@ -33902,14 +32552,8 @@
       <c r="AT225">
         <v>0</v>
       </c>
-      <c r="AU225">
-        <v>415.57142857142799</v>
-      </c>
-      <c r="AV225">
-        <v>389.46666666666601</v>
-      </c>
     </row>
-    <row r="226" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44663</v>
       </c>
@@ -34048,14 +32692,8 @@
       <c r="AT226">
         <v>0</v>
       </c>
-      <c r="AU226">
-        <v>409</v>
-      </c>
-      <c r="AV226">
-        <v>394.933333333333</v>
-      </c>
     </row>
-    <row r="227" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44664</v>
       </c>
@@ -34194,14 +32832,8 @@
       <c r="AT227">
         <v>0</v>
       </c>
-      <c r="AU227">
-        <v>406</v>
-      </c>
-      <c r="AV227">
-        <v>408.13333333333298</v>
-      </c>
     </row>
-    <row r="228" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44665</v>
       </c>
@@ -34340,14 +32972,8 @@
       <c r="AT228">
         <v>0</v>
       </c>
-      <c r="AU228">
-        <v>402.57142857142799</v>
-      </c>
-      <c r="AV228">
-        <v>405.03333333333302</v>
-      </c>
     </row>
-    <row r="229" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44666</v>
       </c>
@@ -34486,14 +33112,8 @@
       <c r="AT229">
         <v>0</v>
       </c>
-      <c r="AU229">
-        <v>399.71428571428498</v>
-      </c>
-      <c r="AV229">
-        <v>403.8</v>
-      </c>
     </row>
-    <row r="230" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44667</v>
       </c>
@@ -34632,14 +33252,8 @@
       <c r="AT230">
         <v>0</v>
       </c>
-      <c r="AU230">
-        <v>382.57142857142799</v>
-      </c>
-      <c r="AV230">
-        <v>400.56666666666598</v>
-      </c>
     </row>
-    <row r="231" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44668</v>
       </c>
@@ -34778,14 +33392,8 @@
       <c r="AT231">
         <v>0</v>
       </c>
-      <c r="AU231">
-        <v>374.42857142857099</v>
-      </c>
-      <c r="AV231">
-        <v>393.3</v>
-      </c>
     </row>
-    <row r="232" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44669</v>
       </c>
@@ -34924,14 +33532,8 @@
       <c r="AT232">
         <v>0</v>
       </c>
-      <c r="AU232">
-        <v>370.85714285714198</v>
-      </c>
-      <c r="AV232">
-        <v>380.1</v>
-      </c>
     </row>
-    <row r="233" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44670</v>
       </c>
@@ -35070,14 +33672,8 @@
       <c r="AT233">
         <v>0</v>
       </c>
-      <c r="AU233">
-        <v>370</v>
-      </c>
-      <c r="AV233">
-        <v>382.76666666666603</v>
-      </c>
     </row>
-    <row r="234" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44671</v>
       </c>
@@ -35216,14 +33812,8 @@
       <c r="AT234">
         <v>0</v>
       </c>
-      <c r="AU234">
-        <v>371.71428571428498</v>
-      </c>
-      <c r="AV234">
-        <v>397.166666666666</v>
-      </c>
     </row>
-    <row r="235" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44672</v>
       </c>
@@ -35362,14 +33952,8 @@
       <c r="AT235">
         <v>0</v>
       </c>
-      <c r="AU235">
-        <v>368.42857142857099</v>
-      </c>
-      <c r="AV235">
-        <v>395.33333333333297</v>
-      </c>
     </row>
-    <row r="236" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44673</v>
       </c>
@@ -35508,14 +34092,8 @@
       <c r="AT236">
         <v>0</v>
       </c>
-      <c r="AU236">
-        <v>359.57142857142799</v>
-      </c>
-      <c r="AV236">
-        <v>394.13333333333298</v>
-      </c>
     </row>
-    <row r="237" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44674</v>
       </c>
@@ -35654,14 +34232,8 @@
       <c r="AT237">
         <v>0</v>
       </c>
-      <c r="AU237">
-        <v>360.57142857142799</v>
-      </c>
-      <c r="AV237">
-        <v>393.7</v>
-      </c>
     </row>
-    <row r="238" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44675</v>
       </c>
@@ -35800,14 +34372,8 @@
       <c r="AT238">
         <v>0</v>
       </c>
-      <c r="AU238">
-        <v>364.85714285714198</v>
-      </c>
-      <c r="AV238">
-        <v>388.06666666666598</v>
-      </c>
     </row>
-    <row r="239" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44676</v>
       </c>
@@ -35946,14 +34512,8 @@
       <c r="AT239">
         <v>0</v>
       </c>
-      <c r="AU239">
-        <v>368</v>
-      </c>
-      <c r="AV239">
-        <v>373.56666666666598</v>
-      </c>
     </row>
-    <row r="240" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44677</v>
       </c>
@@ -36092,14 +34652,8 @@
       <c r="AT240">
         <v>0</v>
       </c>
-      <c r="AU240">
-        <v>371.85714285714198</v>
-      </c>
-      <c r="AV240">
-        <v>378.53333333333302</v>
-      </c>
     </row>
-    <row r="241" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44678</v>
       </c>
@@ -36238,14 +34792,8 @@
       <c r="AT241">
         <v>0</v>
       </c>
-      <c r="AU241">
-        <v>364.57142857142799</v>
-      </c>
-      <c r="AV241">
-        <v>390.83333333333297</v>
-      </c>
     </row>
-    <row r="242" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44679</v>
       </c>
@@ -36384,14 +34932,8 @@
       <c r="AT242">
         <v>0</v>
       </c>
-      <c r="AU242">
-        <v>368.71428571428498</v>
-      </c>
-      <c r="AV242">
-        <v>390.36666666666599</v>
-      </c>
     </row>
-    <row r="243" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44680</v>
       </c>
@@ -36530,14 +35072,8 @@
       <c r="AT243">
         <v>0</v>
       </c>
-      <c r="AU243">
-        <v>373.85714285714198</v>
-      </c>
-      <c r="AV243">
-        <v>389</v>
-      </c>
     </row>
-    <row r="244" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44681</v>
       </c>
@@ -36676,14 +35212,8 @@
       <c r="AT244">
         <v>0</v>
       </c>
-      <c r="AU244">
-        <v>379.42857142857099</v>
-      </c>
-      <c r="AV244">
-        <v>390.933333333333</v>
-      </c>
     </row>
-    <row r="245" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44682</v>
       </c>
@@ -36822,14 +35352,8 @@
       <c r="AT245">
         <v>0</v>
       </c>
-      <c r="AU245">
-        <v>377.142857142857</v>
-      </c>
-      <c r="AV245">
-        <v>385.1</v>
-      </c>
     </row>
-    <row r="246" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44683</v>
       </c>
@@ -36968,14 +35492,8 @@
       <c r="AT246">
         <v>0</v>
       </c>
-      <c r="AU246">
-        <v>376.57142857142799</v>
-      </c>
-      <c r="AV246">
-        <v>370.13333333333298</v>
-      </c>
     </row>
-    <row r="247" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44684</v>
       </c>
@@ -37114,14 +35632,8 @@
       <c r="AT247">
         <v>0</v>
       </c>
-      <c r="AU247">
-        <v>376.142857142857</v>
-      </c>
-      <c r="AV247">
-        <v>373.933333333333</v>
-      </c>
     </row>
-    <row r="248" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44685</v>
       </c>
@@ -37260,14 +35772,8 @@
       <c r="AT248">
         <v>0</v>
       </c>
-      <c r="AU248">
-        <v>379.142857142857</v>
-      </c>
-      <c r="AV248">
-        <v>387.433333333333</v>
-      </c>
     </row>
-    <row r="249" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44686</v>
       </c>
@@ -37406,14 +35912,8 @@
       <c r="AT249">
         <v>0</v>
       </c>
-      <c r="AU249">
-        <v>373</v>
-      </c>
-      <c r="AV249">
-        <v>385.26666666666603</v>
-      </c>
     </row>
-    <row r="250" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44687</v>
       </c>
@@ -37552,14 +36052,8 @@
       <c r="AT250">
         <v>0</v>
       </c>
-      <c r="AU250">
-        <v>367.71428571428498</v>
-      </c>
-      <c r="AV250">
-        <v>383.166666666666</v>
-      </c>
     </row>
-    <row r="251" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44688</v>
       </c>
@@ -37698,14 +36192,8 @@
       <c r="AT251">
         <v>0</v>
       </c>
-      <c r="AU251">
-        <v>357.85714285714198</v>
-      </c>
-      <c r="AV251">
-        <v>380.73333333333301</v>
-      </c>
     </row>
-    <row r="252" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44689</v>
       </c>
@@ -37844,14 +36332,8 @@
       <c r="AT252">
         <v>0</v>
       </c>
-      <c r="AU252">
-        <v>357</v>
-      </c>
-      <c r="AV252">
-        <v>373.5</v>
-      </c>
     </row>
-    <row r="253" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44690</v>
       </c>
@@ -37990,14 +36472,8 @@
       <c r="AT253">
         <v>0</v>
       </c>
-      <c r="AU253">
-        <v>354.42857142857099</v>
-      </c>
-      <c r="AV253">
-        <v>355.96666666666601</v>
-      </c>
     </row>
-    <row r="254" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44691</v>
       </c>
@@ -38136,14 +36612,8 @@
       <c r="AT254">
         <v>0</v>
       </c>
-      <c r="AU254">
-        <v>343</v>
-      </c>
-      <c r="AV254">
-        <v>357.6</v>
-      </c>
     </row>
-    <row r="255" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44692</v>
       </c>
@@ -38282,14 +36752,8 @@
       <c r="AT255">
         <v>0</v>
       </c>
-      <c r="AU255">
-        <v>334.142857142857</v>
-      </c>
-      <c r="AV255">
-        <v>368.433333333333</v>
-      </c>
     </row>
-    <row r="256" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44693</v>
       </c>
@@ -38428,14 +36892,8 @@
       <c r="AT256">
         <v>0</v>
       </c>
-      <c r="AU256">
-        <v>333.71428571428498</v>
-      </c>
-      <c r="AV256">
-        <v>367.7</v>
-      </c>
     </row>
-    <row r="257" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44694</v>
       </c>
@@ -38574,14 +37032,8 @@
       <c r="AT257">
         <v>0</v>
       </c>
-      <c r="AU257">
-        <v>331.71428571428498</v>
-      </c>
-      <c r="AV257">
-        <v>365.83333333333297</v>
-      </c>
     </row>
-    <row r="258" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44695</v>
       </c>
@@ -38720,14 +37172,8 @@
       <c r="AT258">
         <v>0</v>
       </c>
-      <c r="AU258">
-        <v>331.142857142857</v>
-      </c>
-      <c r="AV258">
-        <v>364.06666666666598</v>
-      </c>
     </row>
-    <row r="259" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44696</v>
       </c>
@@ -38866,14 +37312,8 @@
       <c r="AT259">
         <v>0</v>
       </c>
-      <c r="AU259">
-        <v>334.85714285714198</v>
-      </c>
-      <c r="AV259">
-        <v>358.36666666666599</v>
-      </c>
     </row>
-    <row r="260" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44697</v>
       </c>
@@ -39012,14 +37452,8 @@
       <c r="AT260">
         <v>0</v>
       </c>
-      <c r="AU260">
-        <v>337</v>
-      </c>
-      <c r="AV260">
-        <v>345.33333333333297</v>
-      </c>
     </row>
-    <row r="261" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44698</v>
       </c>
@@ -39158,14 +37592,8 @@
       <c r="AT261">
         <v>0</v>
       </c>
-      <c r="AU261">
-        <v>342.142857142857</v>
-      </c>
-      <c r="AV261">
-        <v>350.06666666666598</v>
-      </c>
     </row>
-    <row r="262" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44699</v>
       </c>
@@ -39304,14 +37732,8 @@
       <c r="AT262">
         <v>0</v>
       </c>
-      <c r="AU262">
-        <v>337.71428571428498</v>
-      </c>
-      <c r="AV262">
-        <v>360.7</v>
-      </c>
     </row>
-    <row r="263" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44700</v>
       </c>
@@ -39450,14 +37872,8 @@
       <c r="AT263">
         <v>0</v>
       </c>
-      <c r="AU263">
-        <v>335</v>
-      </c>
-      <c r="AV263">
-        <v>359.53333333333302</v>
-      </c>
     </row>
-    <row r="264" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44701</v>
       </c>
@@ -39596,14 +38012,8 @@
       <c r="AT264">
         <v>0</v>
       </c>
-      <c r="AU264">
-        <v>336</v>
-      </c>
-      <c r="AV264">
-        <v>357.5</v>
-      </c>
     </row>
-    <row r="265" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44702</v>
       </c>
@@ -39742,14 +38152,8 @@
       <c r="AT265">
         <v>0</v>
       </c>
-      <c r="AU265">
-        <v>340</v>
-      </c>
-      <c r="AV265">
-        <v>357.433333333333</v>
-      </c>
     </row>
-    <row r="266" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44703</v>
       </c>
@@ -39888,14 +38292,8 @@
       <c r="AT266">
         <v>0</v>
       </c>
-      <c r="AU266">
-        <v>340.42857142857099</v>
-      </c>
-      <c r="AV266">
-        <v>353.9</v>
-      </c>
     </row>
-    <row r="267" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44704</v>
       </c>
@@ -40034,14 +38432,8 @@
       <c r="AT267">
         <v>0</v>
       </c>
-      <c r="AU267">
-        <v>340.142857142857</v>
-      </c>
-      <c r="AV267">
-        <v>340.56666666666598</v>
-      </c>
     </row>
-    <row r="268" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44705</v>
       </c>
@@ -40180,14 +38572,8 @@
       <c r="AT268">
         <v>0</v>
       </c>
-      <c r="AU268">
-        <v>337.85714285714198</v>
-      </c>
-      <c r="AV268">
-        <v>343.76666666666603</v>
-      </c>
     </row>
-    <row r="269" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44706</v>
       </c>
@@ -40326,14 +38712,8 @@
       <c r="AT269">
         <v>0</v>
       </c>
-      <c r="AU269">
-        <v>338.142857142857</v>
-      </c>
-      <c r="AV269">
-        <v>353.73333333333301</v>
-      </c>
     </row>
-    <row r="270" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44707</v>
       </c>
@@ -40472,14 +38852,8 @@
       <c r="AT270">
         <v>0</v>
       </c>
-      <c r="AU270">
-        <v>342.71428571428498</v>
-      </c>
-      <c r="AV270">
-        <v>352.73333333333301</v>
-      </c>
     </row>
-    <row r="271" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44708</v>
       </c>
@@ -40618,14 +38992,8 @@
       <c r="AT271">
         <v>0</v>
       </c>
-      <c r="AU271">
-        <v>341.28571428571399</v>
-      </c>
-      <c r="AV271">
-        <v>352.06666666666598</v>
-      </c>
     </row>
-    <row r="272" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44709</v>
       </c>
@@ -40764,14 +39132,8 @@
       <c r="AT272">
         <v>0</v>
       </c>
-      <c r="AU272">
-        <v>343.85714285714198</v>
-      </c>
-      <c r="AV272">
-        <v>351.63333333333298</v>
-      </c>
     </row>
-    <row r="273" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44710</v>
       </c>
@@ -40910,14 +39272,8 @@
       <c r="AT273">
         <v>0</v>
       </c>
-      <c r="AU273">
-        <v>343.57142857142799</v>
-      </c>
-      <c r="AV273">
-        <v>346.83333333333297</v>
-      </c>
     </row>
-    <row r="274" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44711</v>
       </c>
@@ -41056,14 +39412,8 @@
       <c r="AT274">
         <v>0</v>
       </c>
-      <c r="AU274">
-        <v>343.142857142857</v>
-      </c>
-      <c r="AV274">
-        <v>332.1</v>
-      </c>
     </row>
-    <row r="275" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44712</v>
       </c>
@@ -41202,14 +39552,8 @@
       <c r="AT275">
         <v>0</v>
       </c>
-      <c r="AU275">
-        <v>312.57142857142799</v>
-      </c>
-      <c r="AV275">
-        <v>328.7</v>
-      </c>
     </row>
-    <row r="276" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44713</v>
       </c>
@@ -41348,14 +39692,8 @@
       <c r="AT276">
         <v>0</v>
       </c>
-      <c r="AU276">
-        <v>321.57142857142799</v>
-      </c>
-      <c r="AV276">
-        <v>340.9</v>
-      </c>
     </row>
-    <row r="277" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44714</v>
       </c>
@@ -41494,14 +39832,8 @@
       <c r="AT277">
         <v>0</v>
       </c>
-      <c r="AU277">
-        <v>321.57142857142799</v>
-      </c>
-      <c r="AV277">
-        <v>340</v>
-      </c>
     </row>
-    <row r="278" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44715</v>
       </c>
@@ -41640,14 +39972,8 @@
       <c r="AT278">
         <v>0</v>
       </c>
-      <c r="AU278">
-        <v>324.71428571428498</v>
-      </c>
-      <c r="AV278">
-        <v>339.36666666666599</v>
-      </c>
     </row>
-    <row r="279" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44716</v>
       </c>
@@ -41786,14 +40112,8 @@
       <c r="AT279">
         <v>0</v>
       </c>
-      <c r="AU279">
-        <v>318.57142857142799</v>
-      </c>
-      <c r="AV279">
-        <v>338.933333333333</v>
-      </c>
     </row>
-    <row r="280" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44717</v>
       </c>
@@ -41932,14 +40252,8 @@
       <c r="AT280">
         <v>0</v>
       </c>
-      <c r="AU280">
-        <v>312.71428571428498</v>
-      </c>
-      <c r="AV280">
-        <v>334</v>
-      </c>
     </row>
-    <row r="281" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44718</v>
       </c>
@@ -42078,14 +40392,8 @@
       <c r="AT281">
         <v>0</v>
       </c>
-      <c r="AU281">
-        <v>312.85714285714198</v>
-      </c>
-      <c r="AV281">
-        <v>321.60000000000002</v>
-      </c>
     </row>
-    <row r="282" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44719</v>
       </c>
@@ -42224,14 +40532,8 @@
       <c r="AT282">
         <v>0</v>
       </c>
-      <c r="AU282">
-        <v>356.85714285714198</v>
-      </c>
-      <c r="AV282">
-        <v>328.666666666666</v>
-      </c>
     </row>
-    <row r="283" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44720</v>
       </c>
@@ -42370,14 +40672,8 @@
       <c r="AT283">
         <v>0</v>
       </c>
-      <c r="AU283">
-        <v>358.142857142857</v>
-      </c>
-      <c r="AV283">
-        <v>341.76666666666603</v>
-      </c>
     </row>
-    <row r="284" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44721</v>
       </c>
@@ -42516,14 +40812,8 @@
       <c r="AT284">
         <v>0</v>
       </c>
-      <c r="AU284">
-        <v>363</v>
-      </c>
-      <c r="AV284">
-        <v>344.666666666666</v>
-      </c>
     </row>
-    <row r="285" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44722</v>
       </c>
@@ -42662,14 +40952,8 @@
       <c r="AT285">
         <v>0</v>
       </c>
-      <c r="AU285">
-        <v>366.28571428571399</v>
-      </c>
-      <c r="AV285">
-        <v>346.86666666666599</v>
-      </c>
     </row>
-    <row r="286" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44723</v>
       </c>
@@ -42808,14 +41092,8 @@
       <c r="AT286">
         <v>0</v>
       </c>
-      <c r="AU286">
-        <v>367.57142857142799</v>
-      </c>
-      <c r="AV286">
-        <v>346.83333333333297</v>
-      </c>
     </row>
-    <row r="287" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44724</v>
       </c>
@@ -42954,14 +41232,8 @@
       <c r="AT287">
         <v>0</v>
       </c>
-      <c r="AU287">
-        <v>366.28571428571399</v>
-      </c>
-      <c r="AV287">
-        <v>342.06666666666598</v>
-      </c>
     </row>
-    <row r="288" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44725</v>
       </c>
@@ -43100,14 +41372,8 @@
       <c r="AT288">
         <v>1</v>
       </c>
-      <c r="AU288">
-        <v>366.71428571428498</v>
-      </c>
-      <c r="AV288">
-        <v>329.9</v>
-      </c>
     </row>
-    <row r="289" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44726</v>
       </c>
@@ -43246,14 +41512,8 @@
       <c r="AT289">
         <v>0</v>
       </c>
-      <c r="AU289">
-        <v>354.28571428571399</v>
-      </c>
-      <c r="AV289">
-        <v>333.2</v>
-      </c>
     </row>
-    <row r="290" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44727</v>
       </c>
@@ -43392,14 +41652,8 @@
       <c r="AT290">
         <v>0</v>
       </c>
-      <c r="AU290">
-        <v>350</v>
-      </c>
-      <c r="AV290">
-        <v>344.8</v>
-      </c>
     </row>
-    <row r="291" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44728</v>
       </c>
@@ -43538,14 +41792,8 @@
       <c r="AT291">
         <v>0</v>
       </c>
-      <c r="AU291">
-        <v>342.28571428571399</v>
-      </c>
-      <c r="AV291">
-        <v>344.7</v>
-      </c>
     </row>
-    <row r="292" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44729</v>
       </c>
@@ -43684,14 +41932,8 @@
       <c r="AT292">
         <v>0</v>
       </c>
-      <c r="AU292">
-        <v>339.57142857142799</v>
-      </c>
-      <c r="AV292">
-        <v>347.3</v>
-      </c>
     </row>
-    <row r="293" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44730</v>
       </c>
@@ -43830,14 +42072,8 @@
       <c r="AT293">
         <v>0</v>
       </c>
-      <c r="AU293">
-        <v>337.28571428571399</v>
-      </c>
-      <c r="AV293">
-        <v>347.36666666666599</v>
-      </c>
     </row>
-    <row r="294" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44731</v>
       </c>
@@ -43976,14 +42212,8 @@
       <c r="AT294">
         <v>0</v>
       </c>
-      <c r="AU294">
-        <v>339.71428571428498</v>
-      </c>
-      <c r="AV294">
-        <v>342.933333333333</v>
-      </c>
     </row>
-    <row r="295" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44732</v>
       </c>
@@ -44122,14 +42352,8 @@
       <c r="AT295">
         <v>0</v>
       </c>
-      <c r="AU295">
-        <v>338.42857142857099</v>
-      </c>
-      <c r="AV295">
-        <v>329.53333333333302</v>
-      </c>
     </row>
-    <row r="296" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44733</v>
       </c>
@@ -44268,14 +42492,8 @@
       <c r="AT296">
         <v>0</v>
       </c>
-      <c r="AU296">
-        <v>339</v>
-      </c>
-      <c r="AV296">
-        <v>332.86666666666599</v>
-      </c>
     </row>
-    <row r="297" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44734</v>
       </c>
@@ -44414,14 +42632,8 @@
       <c r="AT297">
         <v>0</v>
       </c>
-      <c r="AU297">
-        <v>334.28571428571399</v>
-      </c>
-      <c r="AV297">
-        <v>343.433333333333</v>
-      </c>
     </row>
-    <row r="298" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44735</v>
       </c>
@@ -44560,14 +42772,8 @@
       <c r="AT298">
         <v>0</v>
       </c>
-      <c r="AU298">
-        <v>332.142857142857</v>
-      </c>
-      <c r="AV298">
-        <v>343.36666666666599</v>
-      </c>
     </row>
-    <row r="299" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44736</v>
       </c>
@@ -44706,14 +42912,8 @@
       <c r="AT299">
         <v>0</v>
       </c>
-      <c r="AU299">
-        <v>329.85714285714198</v>
-      </c>
-      <c r="AV299">
-        <v>345.36666666666599</v>
-      </c>
     </row>
-    <row r="300" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44737</v>
       </c>
@@ -44852,14 +43052,8 @@
       <c r="AT300">
         <v>0</v>
       </c>
-      <c r="AU300">
-        <v>328.28571428571399</v>
-      </c>
-      <c r="AV300">
-        <v>344</v>
-      </c>
     </row>
-    <row r="301" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44738</v>
       </c>
@@ -44998,14 +43192,8 @@
       <c r="AT301">
         <v>0</v>
       </c>
-      <c r="AU301">
-        <v>328.42857142857099</v>
-      </c>
-      <c r="AV301">
-        <v>339.933333333333</v>
-      </c>
     </row>
-    <row r="302" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44739</v>
       </c>
@@ -45144,14 +43332,8 @@
       <c r="AT302">
         <v>0</v>
       </c>
-      <c r="AU302">
-        <v>328.42857142857099</v>
-      </c>
-      <c r="AV302">
-        <v>325.933333333333</v>
-      </c>
     </row>
-    <row r="303" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44740</v>
       </c>
@@ -45290,14 +43472,8 @@
       <c r="AT303">
         <v>0</v>
       </c>
-      <c r="AU303">
-        <v>333.28571428571399</v>
-      </c>
-      <c r="AV303">
-        <v>330.46666666666601</v>
-      </c>
     </row>
-    <row r="304" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44741</v>
       </c>
@@ -45436,14 +43612,8 @@
       <c r="AT304">
         <v>0</v>
       </c>
-      <c r="AU304">
-        <v>339.42857142857099</v>
-      </c>
-      <c r="AV304">
-        <v>342.56666666666598</v>
-      </c>
     </row>
-    <row r="305" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44742</v>
       </c>
@@ -45582,14 +43752,8 @@
       <c r="AT305">
         <v>0</v>
       </c>
-      <c r="AU305">
-        <v>340</v>
-      </c>
-      <c r="AV305">
-        <v>349.76666666666603</v>
-      </c>
     </row>
-    <row r="306" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44743</v>
       </c>
@@ -45728,14 +43892,8 @@
       <c r="AT306">
         <v>0</v>
       </c>
-      <c r="AU306">
-        <v>344.28571428571399</v>
-      </c>
-      <c r="AV306">
-        <v>350.666666666666</v>
-      </c>
     </row>
-    <row r="307" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44744</v>
       </c>
@@ -45874,14 +44032,8 @@
       <c r="AT307">
         <v>0</v>
       </c>
-      <c r="AU307">
-        <v>347.28571428571399</v>
-      </c>
-      <c r="AV307">
-        <v>350</v>
-      </c>
     </row>
-    <row r="308" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44745</v>
       </c>
@@ -46020,14 +44172,8 @@
       <c r="AT308">
         <v>0</v>
       </c>
-      <c r="AU308">
-        <v>347.71428571428498</v>
-      </c>
-      <c r="AV308">
-        <v>345.3</v>
-      </c>
     </row>
-    <row r="309" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44746</v>
       </c>
@@ -46166,14 +44312,8 @@
       <c r="AT309">
         <v>0</v>
       </c>
-      <c r="AU309">
-        <v>349</v>
-      </c>
-      <c r="AV309">
-        <v>333.03333333333302</v>
-      </c>
     </row>
-    <row r="310" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44747</v>
       </c>
@@ -46312,14 +44452,8 @@
       <c r="AT310">
         <v>0</v>
       </c>
-      <c r="AU310">
-        <v>293.85714285714198</v>
-      </c>
-      <c r="AV310">
-        <v>326.06666666666598</v>
-      </c>
     </row>
-    <row r="311" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44748</v>
       </c>
@@ -46458,14 +44592,8 @@
       <c r="AT311">
         <v>0</v>
       </c>
-      <c r="AU311">
-        <v>293.57142857142799</v>
-      </c>
-      <c r="AV311">
-        <v>338.06666666666598</v>
-      </c>
     </row>
-    <row r="312" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44749</v>
       </c>
@@ -46604,14 +44732,8 @@
       <c r="AT312">
         <v>0</v>
       </c>
-      <c r="AU312">
-        <v>298.57142857142799</v>
-      </c>
-      <c r="AV312">
-        <v>336.166666666666</v>
-      </c>
     </row>
-    <row r="313" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44750</v>
       </c>
@@ -46750,14 +44872,8 @@
       <c r="AT313">
         <v>0</v>
       </c>
-      <c r="AU313">
-        <v>302</v>
-      </c>
-      <c r="AV313">
-        <v>337.56666666666598</v>
-      </c>
     </row>
-    <row r="314" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44751</v>
       </c>
@@ -46896,14 +45012,8 @@
       <c r="AT314">
         <v>0</v>
       </c>
-      <c r="AU314">
-        <v>301</v>
-      </c>
-      <c r="AV314">
-        <v>335.53333333333302</v>
-      </c>
     </row>
-    <row r="315" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44752</v>
       </c>
@@ -47042,14 +45152,8 @@
       <c r="AT315">
         <v>0</v>
       </c>
-      <c r="AU315">
-        <v>297.85714285714198</v>
-      </c>
-      <c r="AV315">
-        <v>329.33333333333297</v>
-      </c>
     </row>
-    <row r="316" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44753</v>
       </c>
@@ -47188,14 +45292,8 @@
       <c r="AT316">
         <v>0</v>
       </c>
-      <c r="AU316">
-        <v>300</v>
-      </c>
-      <c r="AV316">
-        <v>317.26666666666603</v>
-      </c>
     </row>
-    <row r="317" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44754</v>
       </c>
@@ -47334,14 +45432,8 @@
       <c r="AT317">
         <v>0</v>
       </c>
-      <c r="AU317">
-        <v>351.85714285714198</v>
-      </c>
-      <c r="AV317">
-        <v>322.7</v>
-      </c>
     </row>
-    <row r="318" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44755</v>
       </c>
@@ -47480,14 +45572,8 @@
       <c r="AT318">
         <v>0</v>
       </c>
-      <c r="AU318">
-        <v>347.71428571428498</v>
-      </c>
-      <c r="AV318">
-        <v>333.63333333333298</v>
-      </c>
     </row>
-    <row r="319" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44756</v>
       </c>
@@ -47626,14 +45712,8 @@
       <c r="AT319">
         <v>0</v>
       </c>
-      <c r="AU319">
-        <v>337.142857142857</v>
-      </c>
-      <c r="AV319">
-        <v>332.166666666666</v>
-      </c>
     </row>
-    <row r="320" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44757</v>
       </c>
@@ -47772,14 +45852,8 @@
       <c r="AT320">
         <v>0</v>
       </c>
-      <c r="AU320">
-        <v>331.142857142857</v>
-      </c>
-      <c r="AV320">
-        <v>333.166666666666</v>
-      </c>
     </row>
-    <row r="321" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44758</v>
       </c>
@@ -47918,14 +45992,8 @@
       <c r="AT321">
         <v>0</v>
       </c>
-      <c r="AU321">
-        <v>331.57142857142799</v>
-      </c>
-      <c r="AV321">
-        <v>333.03333333333302</v>
-      </c>
     </row>
-    <row r="322" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44759</v>
       </c>
@@ -48064,14 +46132,8 @@
       <c r="AT322">
         <v>0</v>
       </c>
-      <c r="AU322">
-        <v>328.57142857142799</v>
-      </c>
-      <c r="AV322">
-        <v>326.76666666666603</v>
-      </c>
     </row>
-    <row r="323" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44760</v>
       </c>
@@ -48210,14 +46272,8 @@
       <c r="AT323">
         <v>1</v>
       </c>
-      <c r="AU323">
-        <v>327.71428571428498</v>
-      </c>
-      <c r="AV323">
-        <v>315.03333333333302</v>
-      </c>
     </row>
-    <row r="324" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44761</v>
       </c>
@@ -48356,14 +46412,8 @@
       <c r="AT324">
         <v>0</v>
       </c>
-      <c r="AU324">
-        <v>320.71428571428498</v>
-      </c>
-      <c r="AV324">
-        <v>318.26666666666603</v>
-      </c>
     </row>
-    <row r="325" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44762</v>
       </c>
@@ -48502,14 +46552,8 @@
       <c r="AT325">
         <v>0</v>
       </c>
-      <c r="AU325">
-        <v>324.85714285714198</v>
-      </c>
-      <c r="AV325">
-        <v>330.46666666666601</v>
-      </c>
     </row>
-    <row r="326" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44763</v>
       </c>
@@ -48648,14 +46692,8 @@
       <c r="AT326">
         <v>0</v>
       </c>
-      <c r="AU326">
-        <v>332.28571428571399</v>
-      </c>
-      <c r="AV326">
-        <v>330.6</v>
-      </c>
     </row>
-    <row r="327" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44764</v>
       </c>
@@ -48794,14 +46832,8 @@
       <c r="AT327">
         <v>0</v>
       </c>
-      <c r="AU327">
-        <v>326.71428571428498</v>
-      </c>
-      <c r="AV327">
-        <v>331.4</v>
-      </c>
     </row>
-    <row r="328" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44765</v>
       </c>
@@ -48940,14 +46972,8 @@
       <c r="AT328">
         <v>0</v>
       </c>
-      <c r="AU328">
-        <v>328</v>
-      </c>
-      <c r="AV328">
-        <v>332.06666666666598</v>
-      </c>
     </row>
-    <row r="329" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44766</v>
       </c>
@@ -49086,14 +47112,8 @@
       <c r="AT329">
         <v>0</v>
       </c>
-      <c r="AU329">
-        <v>333.142857142857</v>
-      </c>
-      <c r="AV329">
-        <v>327.53333333333302</v>
-      </c>
     </row>
-    <row r="330" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44767</v>
       </c>
@@ -49232,14 +47252,8 @@
       <c r="AT330">
         <v>0</v>
       </c>
-      <c r="AU330">
-        <v>334.71428571428498</v>
-      </c>
-      <c r="AV330">
-        <v>316.53333333333302</v>
-      </c>
     </row>
-    <row r="331" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44768</v>
       </c>
@@ -49378,14 +47392,8 @@
       <c r="AT331">
         <v>0</v>
       </c>
-      <c r="AU331">
-        <v>337.71428571428498</v>
-      </c>
-      <c r="AV331">
-        <v>320.433333333333</v>
-      </c>
     </row>
-    <row r="332" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44769</v>
       </c>
@@ -49524,14 +47532,8 @@
       <c r="AT332">
         <v>0</v>
       </c>
-      <c r="AU332">
-        <v>335.85714285714198</v>
-      </c>
-      <c r="AV332">
-        <v>332.2</v>
-      </c>
     </row>
-    <row r="333" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44770</v>
       </c>
@@ -49670,14 +47672,8 @@
       <c r="AT333">
         <v>0</v>
       </c>
-      <c r="AU333">
-        <v>335.71428571428498</v>
-      </c>
-      <c r="AV333">
-        <v>331.166666666666</v>
-      </c>
     </row>
-    <row r="334" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44771</v>
       </c>
@@ -49816,14 +47812,8 @@
       <c r="AT334">
         <v>0</v>
       </c>
-      <c r="AU334">
-        <v>337</v>
-      </c>
-      <c r="AV334">
-        <v>330.83333333333297</v>
-      </c>
     </row>
-    <row r="335" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44772</v>
       </c>
@@ -49962,14 +47952,8 @@
       <c r="AT335">
         <v>0</v>
       </c>
-      <c r="AU335">
-        <v>334</v>
-      </c>
-      <c r="AV335">
-        <v>330.666666666666</v>
-      </c>
     </row>
-    <row r="336" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44773</v>
       </c>
@@ -50108,14 +48092,8 @@
       <c r="AT336">
         <v>0</v>
       </c>
-      <c r="AU336">
-        <v>333.42857142857099</v>
-      </c>
-      <c r="AV336">
-        <v>325</v>
-      </c>
     </row>
-    <row r="337" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44774</v>
       </c>
@@ -50254,14 +48232,8 @@
       <c r="AT337">
         <v>0</v>
       </c>
-      <c r="AU337">
-        <v>330.28571428571399</v>
-      </c>
-      <c r="AV337">
-        <v>312.56666666666598</v>
-      </c>
     </row>
-    <row r="338" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44775</v>
       </c>
@@ -50400,14 +48372,8 @@
       <c r="AT338">
         <v>0</v>
       </c>
-      <c r="AU338">
-        <v>338.85714285714198</v>
-      </c>
-      <c r="AV338">
-        <v>318.36666666666599</v>
-      </c>
     </row>
-    <row r="339" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44776</v>
       </c>
@@ -50546,14 +48512,8 @@
       <c r="AT339">
         <v>0</v>
       </c>
-      <c r="AU339">
-        <v>341.28571428571399</v>
-      </c>
-      <c r="AV339">
-        <v>330.4</v>
-      </c>
     </row>
-    <row r="340" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44777</v>
       </c>
@@ -50692,14 +48652,8 @@
       <c r="AT340">
         <v>0</v>
       </c>
-      <c r="AU340">
-        <v>343.71428571428498</v>
-      </c>
-      <c r="AV340">
-        <v>342.8</v>
-      </c>
     </row>
-    <row r="341" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44778</v>
       </c>
@@ -50838,14 +48792,8 @@
       <c r="AT341">
         <v>0</v>
       </c>
-      <c r="AU341">
-        <v>347.28571428571399</v>
-      </c>
-      <c r="AV341">
-        <v>343.36666666666599</v>
-      </c>
     </row>
-    <row r="342" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44779</v>
       </c>
@@ -50984,14 +48932,8 @@
       <c r="AT342">
         <v>0</v>
       </c>
-      <c r="AU342">
-        <v>359</v>
-      </c>
-      <c r="AV342">
-        <v>344.76666666666603</v>
-      </c>
     </row>
-    <row r="343" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44780</v>
       </c>
@@ -51130,14 +49072,8 @@
       <c r="AT343">
         <v>0</v>
       </c>
-      <c r="AU343">
-        <v>362.42857142857099</v>
-      </c>
-      <c r="AV343">
-        <v>339.1</v>
-      </c>
     </row>
-    <row r="344" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44781</v>
       </c>
@@ -51276,14 +49212,8 @@
       <c r="AT344">
         <v>0</v>
       </c>
-      <c r="AU344">
-        <v>363.28571428571399</v>
-      </c>
-      <c r="AV344">
-        <v>327.10000000000002</v>
-      </c>
     </row>
-    <row r="345" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44782</v>
       </c>
@@ -51422,14 +49352,8 @@
       <c r="AT345">
         <v>0</v>
       </c>
-      <c r="AU345">
-        <v>363.42857142857099</v>
-      </c>
-      <c r="AV345">
-        <v>333.666666666666</v>
-      </c>
     </row>
-    <row r="346" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44783</v>
       </c>
@@ -51568,14 +49492,8 @@
       <c r="AT346">
         <v>0</v>
       </c>
-      <c r="AU346">
-        <v>361</v>
-      </c>
-      <c r="AV346">
-        <v>344.63333333333298</v>
-      </c>
     </row>
-    <row r="347" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44784</v>
       </c>
@@ -51714,14 +49632,8 @@
       <c r="AT347">
         <v>0</v>
       </c>
-      <c r="AU347">
-        <v>353</v>
-      </c>
-      <c r="AV347">
-        <v>343.06666666666598</v>
-      </c>
     </row>
-    <row r="348" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44785</v>
       </c>
@@ -51860,14 +49772,8 @@
       <c r="AT348">
         <v>0</v>
       </c>
-      <c r="AU348">
-        <v>349.28571428571399</v>
-      </c>
-      <c r="AV348">
-        <v>343.73333333333301</v>
-      </c>
     </row>
-    <row r="349" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44786</v>
       </c>
@@ -52006,14 +49912,8 @@
       <c r="AT349">
         <v>0</v>
       </c>
-      <c r="AU349">
-        <v>340.71428571428498</v>
-      </c>
-      <c r="AV349">
-        <v>345.6</v>
-      </c>
     </row>
-    <row r="350" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44787</v>
       </c>
@@ -52152,14 +50052,8 @@
       <c r="AT350">
         <v>0</v>
       </c>
-      <c r="AU350">
-        <v>338</v>
-      </c>
-      <c r="AV350">
-        <v>340.7</v>
-      </c>
     </row>
-    <row r="351" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44788</v>
       </c>
@@ -52298,14 +50192,8 @@
       <c r="AT351">
         <v>0</v>
       </c>
-      <c r="AU351">
-        <v>336.71428571428498</v>
-      </c>
-      <c r="AV351">
-        <v>328.3</v>
-      </c>
     </row>
-    <row r="352" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44789</v>
       </c>
@@ -52444,14 +50332,8 @@
       <c r="AT352">
         <v>0</v>
       </c>
-      <c r="AU352">
-        <v>331.57142857142799</v>
-      </c>
-      <c r="AV352">
-        <v>334.36666666666599</v>
-      </c>
     </row>
-    <row r="353" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44790</v>
       </c>
@@ -52590,14 +50472,8 @@
       <c r="AT353">
         <v>0</v>
       </c>
-      <c r="AU353">
-        <v>330.142857142857</v>
-      </c>
-      <c r="AV353">
-        <v>345.2</v>
-      </c>
     </row>
-    <row r="354" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44791</v>
       </c>
@@ -52736,14 +50612,8 @@
       <c r="AT354">
         <v>0</v>
       </c>
-      <c r="AU354">
-        <v>332</v>
-      </c>
-      <c r="AV354">
-        <v>345.7</v>
-      </c>
     </row>
-    <row r="355" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44792</v>
       </c>
@@ -52882,14 +50752,8 @@
       <c r="AT355">
         <v>0</v>
       </c>
-      <c r="AU355">
-        <v>337.42857142857099</v>
-      </c>
-      <c r="AV355">
-        <v>346.666666666666</v>
-      </c>
     </row>
-    <row r="356" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44793</v>
       </c>
@@ -53028,14 +50892,8 @@
       <c r="AT356">
         <v>0</v>
       </c>
-      <c r="AU356">
-        <v>332.28571428571399</v>
-      </c>
-      <c r="AV356">
-        <v>345.6</v>
-      </c>
     </row>
-    <row r="357" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44794</v>
       </c>
@@ -53174,14 +51032,8 @@
       <c r="AT357">
         <v>0</v>
       </c>
-      <c r="AU357">
-        <v>332.42857142857099</v>
-      </c>
-      <c r="AV357">
-        <v>342.03333333333302</v>
-      </c>
     </row>
-    <row r="358" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44795</v>
       </c>
@@ -53320,14 +51172,8 @@
       <c r="AT358">
         <v>0</v>
       </c>
-      <c r="AU358">
-        <v>334.42857142857099</v>
-      </c>
-      <c r="AV358">
-        <v>329.8</v>
-      </c>
     </row>
-    <row r="359" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44796</v>
       </c>
@@ -53466,14 +51312,8 @@
       <c r="AT359">
         <v>0</v>
       </c>
-      <c r="AU359">
-        <v>327.28571428571399</v>
-      </c>
-      <c r="AV359">
-        <v>333</v>
-      </c>
     </row>
-    <row r="360" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44797</v>
       </c>
@@ -53612,14 +51452,8 @@
       <c r="AT360">
         <v>0</v>
       </c>
-      <c r="AU360">
-        <v>327</v>
-      </c>
-      <c r="AV360">
-        <v>343.4</v>
-      </c>
     </row>
-    <row r="361" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44798</v>
       </c>
@@ -53758,14 +51592,8 @@
       <c r="AT361">
         <v>0</v>
       </c>
-      <c r="AU361">
-        <v>329.71428571428498</v>
-      </c>
-      <c r="AV361">
-        <v>343.83333333333297</v>
-      </c>
     </row>
-    <row r="362" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44799</v>
       </c>
@@ -53904,14 +51732,8 @@
       <c r="AT362">
         <v>0</v>
       </c>
-      <c r="AU362">
-        <v>323.57142857142799</v>
-      </c>
-      <c r="AV362">
-        <v>343.8</v>
-      </c>
     </row>
-    <row r="363" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44800</v>
       </c>
@@ -54050,14 +51872,8 @@
       <c r="AT363">
         <v>0</v>
       </c>
-      <c r="AU363">
-        <v>325.85714285714198</v>
-      </c>
-      <c r="AV363">
-        <v>343.3</v>
-      </c>
     </row>
-    <row r="364" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44801</v>
       </c>
@@ -54196,14 +52012,8 @@
       <c r="AT364">
         <v>0</v>
       </c>
-      <c r="AU364">
-        <v>327.85714285714198</v>
-      </c>
-      <c r="AV364">
-        <v>339.9</v>
-      </c>
     </row>
-    <row r="365" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44802</v>
       </c>
@@ -54342,14 +52152,8 @@
       <c r="AT365">
         <v>0</v>
       </c>
-      <c r="AU365">
-        <v>329</v>
-      </c>
-      <c r="AV365">
-        <v>328.63333333333298</v>
-      </c>
     </row>
-    <row r="366" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44803</v>
       </c>
@@ -54488,14 +52292,8 @@
       <c r="AT366">
         <v>0</v>
       </c>
-      <c r="AU366">
-        <v>334.71428571428498</v>
-      </c>
-      <c r="AV366">
-        <v>333.3</v>
-      </c>
     </row>
-    <row r="367" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44804</v>
       </c>
@@ -54634,14 +52432,8 @@
       <c r="AT367">
         <v>0</v>
       </c>
-      <c r="AU367">
-        <v>333.71428571428498</v>
-      </c>
-      <c r="AV367">
-        <v>344.2</v>
-      </c>
     </row>
-    <row r="368" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44805</v>
       </c>
@@ -54780,14 +52572,8 @@
       <c r="AT368">
         <v>0</v>
       </c>
-      <c r="AU368">
-        <v>336.28571428571399</v>
-      </c>
-      <c r="AV368">
-        <v>343.23333333333301</v>
-      </c>
     </row>
-    <row r="369" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44806</v>
       </c>
@@ -54926,14 +52712,8 @@
       <c r="AT369">
         <v>0</v>
       </c>
-      <c r="AU369">
-        <v>342.71428571428498</v>
-      </c>
-      <c r="AV369">
-        <v>344.13333333333298</v>
-      </c>
     </row>
-    <row r="370" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44807</v>
       </c>
@@ -55072,14 +52852,8 @@
       <c r="AT370">
         <v>0</v>
       </c>
-      <c r="AU370">
-        <v>334.85714285714198</v>
-      </c>
-      <c r="AV370">
-        <v>341.23333333333301</v>
-      </c>
     </row>
-    <row r="371" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44808</v>
       </c>
@@ -55218,14 +52992,8 @@
       <c r="AT371">
         <v>0</v>
       </c>
-      <c r="AU371">
-        <v>339</v>
-      </c>
-      <c r="AV371">
-        <v>337.96666666666601</v>
-      </c>
     </row>
-    <row r="372" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44809</v>
       </c>
@@ -55364,14 +53132,8 @@
       <c r="AT372">
         <v>0</v>
       </c>
-      <c r="AU372">
-        <v>339.28571428571399</v>
-      </c>
-      <c r="AV372">
-        <v>324.03333333333302</v>
-      </c>
     </row>
-    <row r="373" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44810</v>
       </c>
@@ -55510,14 +53272,8 @@
       <c r="AT373">
         <v>0</v>
       </c>
-      <c r="AU373">
-        <v>301.85714285714198</v>
-      </c>
-      <c r="AV373">
-        <v>319.166666666666</v>
-      </c>
     </row>
-    <row r="374" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44811</v>
       </c>
@@ -55656,14 +53412,8 @@
       <c r="AT374">
         <v>0</v>
       </c>
-      <c r="AU374">
-        <v>306.85714285714198</v>
-      </c>
-      <c r="AV374">
-        <v>331.03333333333302</v>
-      </c>
     </row>
-    <row r="375" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44812</v>
       </c>
@@ -55802,14 +53552,8 @@
       <c r="AT375">
         <v>0</v>
       </c>
-      <c r="AU375">
-        <v>300.85714285714198</v>
-      </c>
-      <c r="AV375">
-        <v>328.63333333333298</v>
-      </c>
     </row>
-    <row r="376" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44813</v>
       </c>
@@ -55948,14 +53692,8 @@
       <c r="AT376">
         <v>0</v>
       </c>
-      <c r="AU376">
-        <v>300.71428571428498</v>
-      </c>
-      <c r="AV376">
-        <v>330.06666666666598</v>
-      </c>
     </row>
-    <row r="377" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44814</v>
       </c>
@@ -56094,14 +53832,8 @@
       <c r="AT377">
         <v>0</v>
       </c>
-      <c r="AU377">
-        <v>308</v>
-      </c>
-      <c r="AV377">
-        <v>330.73333333333301</v>
-      </c>
     </row>
-    <row r="378" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44815</v>
       </c>
@@ -56240,14 +53972,8 @@
       <c r="AT378">
         <v>0</v>
       </c>
-      <c r="AU378">
-        <v>300.57142857142799</v>
-      </c>
-      <c r="AV378">
-        <v>326.60000000000002</v>
-      </c>
     </row>
-    <row r="379" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44816</v>
       </c>
@@ -56386,14 +54112,8 @@
       <c r="AT379">
         <v>0</v>
       </c>
-      <c r="AU379">
-        <v>297.28571428571399</v>
-      </c>
-      <c r="AV379">
-        <v>313.89999999999998</v>
-      </c>
     </row>
-    <row r="380" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44817</v>
       </c>
@@ -56532,14 +54252,8 @@
       <c r="AT380">
         <v>0</v>
       </c>
-      <c r="AU380">
-        <v>335.85714285714198</v>
-      </c>
-      <c r="AV380">
-        <v>318.666666666666</v>
-      </c>
     </row>
-    <row r="381" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44818</v>
       </c>
@@ -56678,14 +54392,8 @@
       <c r="AT381">
         <v>0</v>
       </c>
-      <c r="AU381">
-        <v>332.57142857142799</v>
-      </c>
-      <c r="AV381">
-        <v>330.06666666666598</v>
-      </c>
     </row>
-    <row r="382" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44819</v>
       </c>
@@ -56824,14 +54532,8 @@
       <c r="AT382">
         <v>0</v>
       </c>
-      <c r="AU382">
-        <v>330.57142857142799</v>
-      </c>
-      <c r="AV382">
-        <v>328.4</v>
-      </c>
     </row>
-    <row r="383" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44820</v>
       </c>
@@ -56970,14 +54672,8 @@
       <c r="AT383">
         <v>0</v>
       </c>
-      <c r="AU383">
-        <v>325.71428571428498</v>
-      </c>
-      <c r="AV383">
-        <v>329.03333333333302</v>
-      </c>
     </row>
-    <row r="384" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44821</v>
       </c>
@@ -57116,14 +54812,8 @@
       <c r="AT384">
         <v>0</v>
       </c>
-      <c r="AU384">
-        <v>323.85714285714198</v>
-      </c>
-      <c r="AV384">
-        <v>328.83333333333297</v>
-      </c>
     </row>
-    <row r="385" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44822</v>
       </c>
@@ -57262,14 +54952,8 @@
       <c r="AT385">
         <v>0</v>
       </c>
-      <c r="AU385">
-        <v>323.71428571428498</v>
-      </c>
-      <c r="AV385">
-        <v>323.39999999999998</v>
-      </c>
     </row>
-    <row r="386" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44823</v>
       </c>
@@ -57408,14 +55092,8 @@
       <c r="AT386">
         <v>1</v>
       </c>
-      <c r="AU386">
-        <v>321.57142857142799</v>
-      </c>
-      <c r="AV386">
-        <v>311.39999999999998</v>
-      </c>
     </row>
-    <row r="387" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44824</v>
       </c>
@@ -57554,14 +55232,8 @@
       <c r="AT387">
         <v>0</v>
       </c>
-      <c r="AU387">
-        <v>314.28571428571399</v>
-      </c>
-      <c r="AV387">
-        <v>314.433333333333</v>
-      </c>
     </row>
-    <row r="388" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44825</v>
       </c>
@@ -57700,14 +55372,8 @@
       <c r="AT388">
         <v>0</v>
       </c>
-      <c r="AU388">
-        <v>310.85714285714198</v>
-      </c>
-      <c r="AV388">
-        <v>324.56666666666598</v>
-      </c>
     </row>
-    <row r="389" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44826</v>
       </c>
@@ -57846,14 +55512,8 @@
       <c r="AT389">
         <v>0</v>
       </c>
-      <c r="AU389">
-        <v>312.57142857142799</v>
-      </c>
-      <c r="AV389">
-        <v>324.96666666666601</v>
-      </c>
     </row>
-    <row r="390" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44827</v>
       </c>
@@ -57992,14 +55652,8 @@
       <c r="AT390">
         <v>0</v>
       </c>
-      <c r="AU390">
-        <v>313.28571428571399</v>
-      </c>
-      <c r="AV390">
-        <v>325.83333333333297</v>
-      </c>
     </row>
-    <row r="391" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44828</v>
       </c>
@@ -58138,14 +55792,8 @@
       <c r="AT391">
         <v>0</v>
       </c>
-      <c r="AU391">
-        <v>312</v>
-      </c>
-      <c r="AV391">
-        <v>324.7</v>
-      </c>
     </row>
-    <row r="392" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44829</v>
       </c>
@@ -58284,14 +55932,8 @@
       <c r="AT392">
         <v>0</v>
       </c>
-      <c r="AU392">
-        <v>308.57142857142799</v>
-      </c>
-      <c r="AV392">
-        <v>319.89999999999998</v>
-      </c>
     </row>
-    <row r="393" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44830</v>
       </c>
@@ -58430,14 +56072,8 @@
       <c r="AT393">
         <v>0</v>
       </c>
-      <c r="AU393">
-        <v>308.85714285714198</v>
-      </c>
-      <c r="AV393">
-        <v>307.433333333333</v>
-      </c>
     </row>
-    <row r="394" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44831</v>
       </c>
@@ -58576,14 +56212,8 @@
       <c r="AT394">
         <v>0</v>
       </c>
-      <c r="AU394">
-        <v>307.28571428571399</v>
-      </c>
-      <c r="AV394">
-        <v>309.63333333333298</v>
-      </c>
     </row>
-    <row r="395" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44832</v>
       </c>
@@ -58722,14 +56352,8 @@
       <c r="AT395">
         <v>0</v>
       </c>
-      <c r="AU395">
-        <v>308.71428571428498</v>
-      </c>
-      <c r="AV395">
-        <v>319.83333333333297</v>
-      </c>
     </row>
-    <row r="396" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44833</v>
       </c>
@@ -58868,14 +56492,8 @@
       <c r="AT396">
         <v>0</v>
       </c>
-      <c r="AU396">
-        <v>298.71428571428498</v>
-      </c>
-      <c r="AV396">
-        <v>316.56666666666598</v>
-      </c>
     </row>
-    <row r="397" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44834</v>
       </c>
@@ -59014,14 +56632,8 @@
       <c r="AT397">
         <v>0</v>
       </c>
-      <c r="AU397">
-        <v>288.57142857142799</v>
-      </c>
-      <c r="AV397">
-        <v>315.3</v>
-      </c>
     </row>
-    <row r="398" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44835</v>
       </c>
@@ -59160,14 +56772,8 @@
       <c r="AT398">
         <v>0</v>
       </c>
-      <c r="AU398">
-        <v>276.42857142857099</v>
-      </c>
-      <c r="AV398">
-        <v>310.73333333333301</v>
-      </c>
     </row>
-    <row r="399" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44836</v>
       </c>
@@ -59306,14 +56912,8 @@
       <c r="AT399">
         <v>0</v>
       </c>
-      <c r="AU399">
-        <v>280.89917510924897</v>
-      </c>
-      <c r="AV399">
-        <v>305.47647419215798</v>
-      </c>
     </row>
-    <row r="400" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44837</v>
       </c>
@@ -59452,14 +57052,8 @@
       <c r="AT400">
         <v>0</v>
       </c>
-      <c r="AU400">
-        <v>277.02332887207501</v>
-      </c>
-      <c r="AV400">
-        <v>293.93877673681698</v>
-      </c>
     </row>
-    <row r="401" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44838</v>
       </c>
@@ -59598,14 +57192,8 @@
       <c r="AT401">
         <v>0</v>
       </c>
-      <c r="AU401">
-        <v>274.52307939026798</v>
-      </c>
-      <c r="AV401">
-        <v>294.58871852439597</v>
-      </c>
     </row>
-    <row r="402" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44839</v>
       </c>
@@ -59744,14 +57332,8 @@
       <c r="AT402">
         <v>0</v>
       </c>
-      <c r="AU402">
-        <v>275.38534822079799</v>
-      </c>
-      <c r="AV402">
-        <v>304.92324791818601</v>
-      </c>
     </row>
-    <row r="403" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44840</v>
       </c>
@@ -59890,14 +57472,8 @@
       <c r="AT403">
         <v>0</v>
       </c>
-      <c r="AU403">
-        <v>286.87953282700499</v>
-      </c>
-      <c r="AV403">
-        <v>313.07189099296698</v>
-      </c>
     </row>
-    <row r="404" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44841</v>
       </c>
@@ -60036,14 +57612,8 @@
       <c r="AT404">
         <v>0</v>
       </c>
-      <c r="AU404">
-        <v>294.53872498248103</v>
-      </c>
-      <c r="AV404">
-        <v>312.42570249591199</v>
-      </c>
     </row>
-    <row r="405" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44842</v>
       </c>
@@ -60182,14 +57752,8 @@
       <c r="AT405">
         <v>0</v>
       </c>
-      <c r="AU405">
-        <v>305.769980117854</v>
-      </c>
-      <c r="AV405">
-        <v>311.87966202749902</v>
-      </c>
     </row>
-    <row r="406" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44843</v>
       </c>
@@ -60328,14 +57892,8 @@
       <c r="AT406">
         <v>0</v>
       </c>
-      <c r="AU406">
-        <v>303.357882772501</v>
-      </c>
-      <c r="AV406">
-        <v>306.09331350574098</v>
-      </c>
     </row>
-    <row r="407" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44844</v>
       </c>
@@ -60474,14 +58032,8 @@
       <c r="AT407">
         <v>0</v>
       </c>
-      <c r="AU407">
-        <v>303.357882772501</v>
-      </c>
-      <c r="AV407">
-        <v>292.85561605040101</v>
-      </c>
     </row>
-    <row r="408" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44845</v>
       </c>
@@ -60620,14 +58172,8 @@
       <c r="AT408">
         <v>0</v>
       </c>
-      <c r="AU408">
-        <v>285.15416597548602</v>
-      </c>
-      <c r="AV408">
-        <v>290.99135725200898</v>
-      </c>
     </row>
-    <row r="409" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44846</v>
       </c>
@@ -60766,14 +58312,8 @@
       <c r="AT409">
         <v>0</v>
       </c>
-      <c r="AU409">
-        <v>282.528673489315</v>
-      </c>
-      <c r="AV409">
-        <v>301.47993839902603</v>
-      </c>
     </row>
-    <row r="410" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44847</v>
       </c>
@@ -60912,14 +58452,8 @@
       <c r="AT410">
         <v>0</v>
       </c>
-      <c r="AU410">
-        <v>281.07024109522501</v>
-      </c>
-      <c r="AV410">
-        <v>300.28828058185297</v>
-      </c>
     </row>
-    <row r="411" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44848</v>
       </c>
@@ -61058,14 +58592,8 @@
       <c r="AT411">
         <v>0</v>
       </c>
-      <c r="AU411">
-        <v>279.81725507846198</v>
-      </c>
-      <c r="AV411">
-        <v>300.11639534755301</v>
-      </c>
     </row>
-    <row r="412" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44849</v>
       </c>
@@ -61204,14 +58732,8 @@
       <c r="AT412">
         <v>0</v>
       </c>
-      <c r="AU412">
-        <v>280.76515215217802</v>
-      </c>
-      <c r="AV412">
-        <v>300.25819752967402</v>
-      </c>
     </row>
-    <row r="413" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44850</v>
       </c>
@@ -61350,14 +58872,8 @@
       <c r="AT413">
         <v>0</v>
       </c>
-      <c r="AU413">
-        <v>281.87098674301001</v>
-      </c>
-      <c r="AV413">
-        <v>295.863210412444</v>
-      </c>
     </row>
-    <row r="414" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44851</v>
       </c>
@@ -61496,14 +59012,8 @@
       <c r="AT414">
         <v>0</v>
       </c>
-      <c r="AU414">
-        <v>281.87098674301001</v>
-      </c>
-      <c r="AV414">
-        <v>283.05884629043697</v>
-      </c>
     </row>
-    <row r="415" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44852</v>
       </c>
@@ -61642,14 +59152,8 @@
       <c r="AT415">
         <v>0</v>
       </c>
-      <c r="AU415">
-        <v>311.27724294178302</v>
-      </c>
-      <c r="AV415">
-        <v>288.089380605092</v>
-      </c>
     </row>
-    <row r="416" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44853</v>
       </c>
@@ -61788,14 +59292,8 @@
       <c r="AT416">
         <v>0</v>
       </c>
-      <c r="AU416">
-        <v>311.05470281498799</v>
-      </c>
-      <c r="AV416">
-        <v>299.026035722524</v>
-      </c>
     </row>
-    <row r="417" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44854</v>
       </c>
@@ -61934,14 +59432,8 @@
       <c r="AT417">
         <v>0</v>
       </c>
-      <c r="AU417">
-        <v>310.88904724009097</v>
-      </c>
-      <c r="AV417">
-        <v>299.49572493787502</v>
-      </c>
     </row>
-    <row r="418" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44855</v>
       </c>
@@ -62080,14 +59572,8 @@
       <c r="AT418">
         <v>0</v>
       </c>
-      <c r="AU418">
-        <v>310.05799314431601</v>
-      </c>
-      <c r="AV418">
-        <v>299.92992708122699</v>
-      </c>
     </row>
-    <row r="419" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44856</v>
       </c>
@@ -62226,14 +59712,8 @@
       <c r="AT419">
         <v>0</v>
       </c>
-      <c r="AU419">
-        <v>309.22179378871903</v>
-      </c>
-      <c r="AV419">
-        <v>299.47661608037498</v>
-      </c>
     </row>
-    <row r="420" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44857</v>
       </c>
@@ -62372,14 +59852,8 @@
       <c r="AT420">
         <v>0</v>
       </c>
-      <c r="AU420">
-        <v>308.10704734490702</v>
-      </c>
-      <c r="AV420">
-        <v>294.65485479292198</v>
-      </c>
     </row>
-    <row r="421" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44858</v>
       </c>
@@ -62518,14 +59992,8 @@
       <c r="AT421">
         <v>1</v>
       </c>
-      <c r="AU421">
-        <v>308.10704734490702</v>
-      </c>
-      <c r="AV421">
-        <v>282.15049067091502</v>
-      </c>
     </row>
-    <row r="422" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44859</v>
       </c>
@@ -62664,14 +60132,8 @@
       <c r="AT422">
         <v>0</v>
       </c>
-      <c r="AU422">
-        <v>301.422138994541</v>
-      </c>
-      <c r="AV422">
-        <v>286.42121303715197</v>
-      </c>
     </row>
-    <row r="423" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44860</v>
       </c>
@@ -62810,14 +60272,8 @@
       <c r="AT423">
         <v>0</v>
       </c>
-      <c r="AU423">
-        <v>299.96270620991402</v>
-      </c>
-      <c r="AV423">
-        <v>296.95066717150399</v>
-      </c>
     </row>
-    <row r="424" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44861</v>
       </c>
@@ -62956,15 +60412,570 @@
       <c r="AT424">
         <v>0</v>
       </c>
-      <c r="AU424">
-        <v>298.32916377437999</v>
-      </c>
-      <c r="AV424">
-        <v>297.40586315189699</v>
+    </row>
+    <row r="425" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B425">
+        <v>324</v>
+      </c>
+      <c r="C425">
+        <v>333</v>
+      </c>
+      <c r="D425">
+        <v>310</v>
+      </c>
+      <c r="E425">
+        <v>306</v>
+      </c>
+      <c r="F425">
+        <v>297</v>
+      </c>
+      <c r="G425">
+        <v>45</v>
+      </c>
+      <c r="H425">
+        <v>220</v>
+      </c>
+      <c r="I425">
+        <v>338</v>
+      </c>
+      <c r="J425">
+        <v>322</v>
+      </c>
+      <c r="K425">
+        <v>335</v>
+      </c>
+      <c r="L425">
+        <v>319</v>
+      </c>
+      <c r="M425">
+        <v>359</v>
+      </c>
+      <c r="N425">
+        <v>41</v>
+      </c>
+      <c r="O425">
+        <v>232</v>
+      </c>
+      <c r="P425">
+        <v>338</v>
+      </c>
+      <c r="Q425">
+        <v>331</v>
+      </c>
+      <c r="R425">
+        <v>349</v>
+      </c>
+      <c r="S425">
+        <v>323</v>
+      </c>
+      <c r="T425">
+        <v>359</v>
+      </c>
+      <c r="U425">
+        <v>43</v>
+      </c>
+      <c r="V425">
+        <v>248</v>
+      </c>
+      <c r="W425">
+        <v>381</v>
+      </c>
+      <c r="X425">
+        <v>428</v>
+      </c>
+      <c r="Y425">
+        <v>370</v>
+      </c>
+      <c r="Z425">
+        <v>325</v>
+      </c>
+      <c r="AA425">
+        <v>366</v>
+      </c>
+      <c r="AB425">
+        <v>51</v>
+      </c>
+      <c r="AC425">
+        <v>211</v>
+      </c>
+      <c r="AD425">
+        <v>291</v>
+      </c>
+      <c r="AE425">
+        <v>332</v>
+      </c>
+      <c r="AF425">
+        <v>314</v>
+      </c>
+      <c r="AG425" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH425">
+        <v>6</v>
+      </c>
+      <c r="AI425">
+        <v>28</v>
+      </c>
+      <c r="AJ425">
+        <v>0</v>
+      </c>
+      <c r="AK425">
+        <v>0</v>
+      </c>
+      <c r="AL425">
+        <v>0</v>
+      </c>
+      <c r="AM425">
+        <v>0</v>
+      </c>
+      <c r="AN425">
+        <v>0</v>
+      </c>
+      <c r="AO425">
+        <v>0</v>
+      </c>
+      <c r="AP425">
+        <v>0</v>
+      </c>
+      <c r="AQ425">
+        <v>1</v>
+      </c>
+      <c r="AR425">
+        <v>0</v>
+      </c>
+      <c r="AS425">
+        <v>0</v>
+      </c>
+      <c r="AT425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B426">
+        <v>224</v>
+      </c>
+      <c r="C426">
+        <v>324</v>
+      </c>
+      <c r="D426">
+        <v>333</v>
+      </c>
+      <c r="E426">
+        <v>310</v>
+      </c>
+      <c r="F426">
+        <v>306</v>
+      </c>
+      <c r="G426">
+        <v>297</v>
+      </c>
+      <c r="H426">
+        <v>45</v>
+      </c>
+      <c r="I426">
+        <v>220</v>
+      </c>
+      <c r="J426">
+        <v>338</v>
+      </c>
+      <c r="K426">
+        <v>322</v>
+      </c>
+      <c r="L426">
+        <v>335</v>
+      </c>
+      <c r="M426">
+        <v>319</v>
+      </c>
+      <c r="N426">
+        <v>359</v>
+      </c>
+      <c r="O426">
+        <v>41</v>
+      </c>
+      <c r="P426">
+        <v>232</v>
+      </c>
+      <c r="Q426">
+        <v>338</v>
+      </c>
+      <c r="R426">
+        <v>331</v>
+      </c>
+      <c r="S426">
+        <v>349</v>
+      </c>
+      <c r="T426">
+        <v>323</v>
+      </c>
+      <c r="U426">
+        <v>359</v>
+      </c>
+      <c r="V426">
+        <v>43</v>
+      </c>
+      <c r="W426">
+        <v>248</v>
+      </c>
+      <c r="X426">
+        <v>381</v>
+      </c>
+      <c r="Y426">
+        <v>428</v>
+      </c>
+      <c r="Z426">
+        <v>370</v>
+      </c>
+      <c r="AA426">
+        <v>325</v>
+      </c>
+      <c r="AB426">
+        <v>366</v>
+      </c>
+      <c r="AC426">
+        <v>51</v>
+      </c>
+      <c r="AD426">
+        <v>211</v>
+      </c>
+      <c r="AE426">
+        <v>291</v>
+      </c>
+      <c r="AF426">
+        <v>332</v>
+      </c>
+      <c r="AG426" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH426">
+        <v>7</v>
+      </c>
+      <c r="AI426">
+        <v>29</v>
+      </c>
+      <c r="AJ426">
+        <v>0</v>
+      </c>
+      <c r="AK426">
+        <v>0</v>
+      </c>
+      <c r="AL426">
+        <v>0</v>
+      </c>
+      <c r="AM426">
+        <v>0</v>
+      </c>
+      <c r="AN426">
+        <v>0</v>
+      </c>
+      <c r="AO426">
+        <v>0</v>
+      </c>
+      <c r="AP426">
+        <v>0</v>
+      </c>
+      <c r="AQ426">
+        <v>0</v>
+      </c>
+      <c r="AR426">
+        <v>1</v>
+      </c>
+      <c r="AS426">
+        <v>0</v>
+      </c>
+      <c r="AT426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B427">
+        <v>20</v>
+      </c>
+      <c r="C427">
+        <v>224</v>
+      </c>
+      <c r="D427">
+        <v>324</v>
+      </c>
+      <c r="E427">
+        <v>333</v>
+      </c>
+      <c r="F427">
+        <v>310</v>
+      </c>
+      <c r="G427">
+        <v>306</v>
+      </c>
+      <c r="H427">
+        <v>297</v>
+      </c>
+      <c r="I427">
+        <v>45</v>
+      </c>
+      <c r="J427">
+        <v>220</v>
+      </c>
+      <c r="K427">
+        <v>338</v>
+      </c>
+      <c r="L427">
+        <v>322</v>
+      </c>
+      <c r="M427">
+        <v>335</v>
+      </c>
+      <c r="N427">
+        <v>319</v>
+      </c>
+      <c r="O427">
+        <v>359</v>
+      </c>
+      <c r="P427">
+        <v>41</v>
+      </c>
+      <c r="Q427">
+        <v>232</v>
+      </c>
+      <c r="R427">
+        <v>338</v>
+      </c>
+      <c r="S427">
+        <v>331</v>
+      </c>
+      <c r="T427">
+        <v>349</v>
+      </c>
+      <c r="U427">
+        <v>323</v>
+      </c>
+      <c r="V427">
+        <v>359</v>
+      </c>
+      <c r="W427">
+        <v>43</v>
+      </c>
+      <c r="X427">
+        <v>248</v>
+      </c>
+      <c r="Y427">
+        <v>381</v>
+      </c>
+      <c r="Z427">
+        <v>428</v>
+      </c>
+      <c r="AA427">
+        <v>370</v>
+      </c>
+      <c r="AB427">
+        <v>325</v>
+      </c>
+      <c r="AC427">
+        <v>366</v>
+      </c>
+      <c r="AD427">
+        <v>51</v>
+      </c>
+      <c r="AE427">
+        <v>211</v>
+      </c>
+      <c r="AF427">
+        <v>291</v>
+      </c>
+      <c r="AG427" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH427">
+        <v>1</v>
+      </c>
+      <c r="AI427">
+        <v>30</v>
+      </c>
+      <c r="AJ427">
+        <v>0</v>
+      </c>
+      <c r="AK427">
+        <v>0</v>
+      </c>
+      <c r="AL427">
+        <v>1</v>
+      </c>
+      <c r="AM427">
+        <v>0</v>
+      </c>
+      <c r="AN427">
+        <v>0</v>
+      </c>
+      <c r="AO427">
+        <v>0</v>
+      </c>
+      <c r="AP427">
+        <v>0</v>
+      </c>
+      <c r="AQ427">
+        <v>0</v>
+      </c>
+      <c r="AR427">
+        <v>0</v>
+      </c>
+      <c r="AS427">
+        <v>0</v>
+      </c>
+      <c r="AT427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B428">
+        <v>329</v>
+      </c>
+      <c r="C428">
+        <v>20</v>
+      </c>
+      <c r="D428">
+        <v>224</v>
+      </c>
+      <c r="E428">
+        <v>324</v>
+      </c>
+      <c r="F428">
+        <v>333</v>
+      </c>
+      <c r="G428">
+        <v>310</v>
+      </c>
+      <c r="H428">
+        <v>306</v>
+      </c>
+      <c r="I428">
+        <v>297</v>
+      </c>
+      <c r="J428">
+        <v>45</v>
+      </c>
+      <c r="K428">
+        <v>220</v>
+      </c>
+      <c r="L428">
+        <v>338</v>
+      </c>
+      <c r="M428">
+        <v>322</v>
+      </c>
+      <c r="N428">
+        <v>335</v>
+      </c>
+      <c r="O428">
+        <v>319</v>
+      </c>
+      <c r="P428">
+        <v>359</v>
+      </c>
+      <c r="Q428">
+        <v>41</v>
+      </c>
+      <c r="R428">
+        <v>232</v>
+      </c>
+      <c r="S428">
+        <v>338</v>
+      </c>
+      <c r="T428">
+        <v>331</v>
+      </c>
+      <c r="U428">
+        <v>349</v>
+      </c>
+      <c r="V428">
+        <v>323</v>
+      </c>
+      <c r="W428">
+        <v>359</v>
+      </c>
+      <c r="X428">
+        <v>43</v>
+      </c>
+      <c r="Y428">
+        <v>248</v>
+      </c>
+      <c r="Z428">
+        <v>381</v>
+      </c>
+      <c r="AA428">
+        <v>428</v>
+      </c>
+      <c r="AB428">
+        <v>370</v>
+      </c>
+      <c r="AC428">
+        <v>325</v>
+      </c>
+      <c r="AD428">
+        <v>366</v>
+      </c>
+      <c r="AE428">
+        <v>51</v>
+      </c>
+      <c r="AF428">
+        <v>211</v>
+      </c>
+      <c r="AG428" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH428">
+        <v>2</v>
+      </c>
+      <c r="AI428">
+        <v>31</v>
+      </c>
+      <c r="AJ428">
+        <v>0</v>
+      </c>
+      <c r="AK428">
+        <v>0</v>
+      </c>
+      <c r="AL428">
+        <v>0</v>
+      </c>
+      <c r="AM428">
+        <v>1</v>
+      </c>
+      <c r="AN428">
+        <v>0</v>
+      </c>
+      <c r="AO428">
+        <v>0</v>
+      </c>
+      <c r="AP428">
+        <v>0</v>
+      </c>
+      <c r="AQ428">
+        <v>0</v>
+      </c>
+      <c r="AR428">
+        <v>0</v>
+      </c>
+      <c r="AS428">
+        <v>0</v>
+      </c>
+      <c r="AT428">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>